--- a/Statistics/Results/0Statistics.xlsx
+++ b/Statistics/Results/0Statistics.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorot\Desktop\MasterStudy\Statistics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A4CC9A-14D8-4F47-809F-4FD2B3C9DEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB386E-FE7E-418A-8A45-DD85753EDFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92DA4F82-F3B0-4D0A-8357-BC4D58B3AC05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{92DA4F82-F3B0-4D0A-8357-BC4D58B3AC05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Normality_Gender" sheetId="1" r:id="rId1"/>
-    <sheet name="Sections" sheetId="5" r:id="rId2"/>
-    <sheet name="Correlation" sheetId="2" r:id="rId3"/>
+    <sheet name="Normality" sheetId="7" r:id="rId1"/>
+    <sheet name="Correlation" sheetId="2" r:id="rId2"/>
+    <sheet name="Gender" sheetId="1" r:id="rId3"/>
     <sheet name="Cluster" sheetId="6" r:id="rId4"/>
+    <sheet name="Sections" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="115">
   <si>
     <t>Mean_Jerk_X</t>
   </si>
@@ -690,6 +691,48 @@
   </si>
   <si>
     <t>Difference Standard Error and Standard Deviation</t>
+  </si>
+  <si>
+    <t>t(15)=5.888</t>
+  </si>
+  <si>
+    <t>t(15)=3.816</t>
+  </si>
+  <si>
+    <t>t(15)=0.545</t>
+  </si>
+  <si>
+    <t>t(15)=-2.459</t>
+  </si>
+  <si>
+    <t>t(15)=0.382</t>
+  </si>
+  <si>
+    <t>t(15)=-2.322</t>
+  </si>
+  <si>
+    <t>t(15)=2.380</t>
+  </si>
+  <si>
+    <t>U=2</t>
+  </si>
+  <si>
+    <t>U=1</t>
+  </si>
+  <si>
+    <t>U=25.5</t>
+  </si>
+  <si>
+    <t>U=26.5</t>
+  </si>
+  <si>
+    <t>U=36</t>
+  </si>
+  <si>
+    <t>Cluster 0</t>
+  </si>
+  <si>
+    <t>Cluster 1</t>
   </si>
 </sst>
 </file>
@@ -947,15 +990,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1087,16 +1131,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard_Cluster" xfId="6" xr:uid="{334A154F-ED1E-49C0-BB5F-2F097A44C558}"/>
     <cellStyle name="Standard_Correlation" xfId="3" xr:uid="{04B1321D-ABAF-4CA0-8DAD-03873EED1CB2}"/>
     <cellStyle name="Standard_Correlation_1" xfId="5" xr:uid="{56FBE5FE-6FFA-4D17-83D9-5270982BC9F0}"/>
     <cellStyle name="Standard_Normality" xfId="1" xr:uid="{9CE0A5FD-1331-43C7-B8C7-15DC6BC14D76}"/>
     <cellStyle name="Standard_Normality_1" xfId="2" xr:uid="{B80533CD-19D6-4BE3-897E-E6E31374F050}"/>
     <cellStyle name="Standard_Normality_Gender" xfId="4" xr:uid="{6C5A5652-55CC-4393-9072-693886BCF763}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1566,1482 +1687,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C9FE85-CC91-498B-A682-8422AA3DBA71}">
-  <dimension ref="A1:S55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6B998D-F4AD-4A04-BB93-524528C21454}">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="20"/>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="47" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="O1" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="9">
+        <v>7394763.4714117656</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2139963.8336689183</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.3630389295671277E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
         <v>9966331.2386777773</v>
       </c>
-      <c r="C3" s="15">
+      <c r="H3" s="15">
         <v>3512790.7138430048</v>
       </c>
-      <c r="D3" s="16">
+      <c r="I3" s="16">
         <v>7.3363660504012329E-2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="J3" s="14">
         <v>4501749.7332375003</v>
       </c>
-      <c r="F3" s="15">
+      <c r="K3" s="15">
         <v>2029593.2160342773</v>
       </c>
-      <c r="G3" s="16">
+      <c r="L3" s="16">
         <v>7.2211771905522984E-3</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9">
-        <v>7394763.4714117656</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>2139963.8336689183</v>
-      </c>
-      <c r="R3" s="10">
-        <v>1.3630389295671277E-3</v>
-      </c>
-      <c r="S3" s="11"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="9">
+        <v>9212365.3782000002</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3596627.0058400002</v>
+      </c>
+      <c r="D4" s="8">
+        <v>7.1358866493814112E-6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
         <v>13921089.805455556</v>
       </c>
-      <c r="C4" s="18">
+      <c r="H4" s="18">
         <v>6393054.0189955449</v>
       </c>
-      <c r="D4" s="16">
+      <c r="I4" s="16">
         <v>6.879645931961233E-4</v>
       </c>
-      <c r="E4" s="17">
+      <c r="J4" s="17">
         <v>3915050.3975124997</v>
       </c>
-      <c r="F4" s="18">
+      <c r="K4" s="18">
         <v>1646176.4438330398</v>
       </c>
-      <c r="G4" s="16">
+      <c r="L4" s="16">
         <v>7.7405015164880003E-3</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="9">
-        <v>9212365.3782000002</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>3596627.0058400002</v>
-      </c>
-      <c r="R4" s="8">
-        <v>7.1358866493814112E-6</v>
-      </c>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
+        <v>8228822.1944647059</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2349733.74776841</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.1715595601714092E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14">
         <v>10991014.066566667</v>
       </c>
-      <c r="C5" s="15">
+      <c r="H5" s="15">
         <v>3951239.8874015608</v>
       </c>
-      <c r="D5" s="16">
+      <c r="I5" s="16">
         <v>5.3461007073188758E-2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="J5" s="14">
         <v>5121356.3383499999</v>
       </c>
-      <c r="F5" s="15">
+      <c r="K5" s="15">
         <v>2034418.9937884149</v>
       </c>
-      <c r="G5" s="16">
+      <c r="L5" s="16">
         <v>4.0866981658194579E-2</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5">
-        <v>0.37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="9">
-        <v>8228822.1944647059</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>2349733.74776841</v>
-      </c>
-      <c r="R5" s="10">
-        <v>1.1715595601714092E-3</v>
-      </c>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
+        <v>7645352.9497941202</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1863982.4823806363</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.4465887514551109E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14">
         <v>9676768.6340999994</v>
       </c>
-      <c r="C6" s="15">
+      <c r="H6" s="15">
         <v>2953068.3727158192</v>
       </c>
-      <c r="D6" s="16">
+      <c r="I6" s="16">
         <v>0.70160594637837981</v>
       </c>
-      <c r="E6" s="14">
+      <c r="J6" s="14">
         <v>4313161.9601250002</v>
       </c>
-      <c r="F6" s="15">
+      <c r="K6" s="15">
         <v>1744579.8499656059</v>
       </c>
-      <c r="G6" s="16">
+      <c r="L6" s="16">
         <v>3.2833597147100581E-2</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="9">
-        <v>7645352.9497941202</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1863982.4823806363</v>
-      </c>
-      <c r="R6" s="10">
-        <v>2.4465887514551109E-2</v>
-      </c>
-      <c r="S6" s="11"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="9">
+        <v>5773995.5147764711</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1895162.8480908745</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5.7160907513677381E-5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17">
         <v>7698999.0304666655</v>
       </c>
-      <c r="C7" s="18">
+      <c r="H7" s="18">
         <v>3363714.765614308</v>
       </c>
-      <c r="D7" s="16">
+      <c r="I7" s="16">
         <v>4.3157483715240202E-3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="J7" s="17">
         <v>3608366.5596249998</v>
       </c>
-      <c r="F7" s="18">
+      <c r="K7" s="18">
         <v>1277600.9975849367</v>
       </c>
-      <c r="G7" s="16">
+      <c r="L7" s="16">
         <v>8.4370464237915003E-3</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="9">
-        <v>5773995.5147764711</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1895162.8480908745</v>
-      </c>
-      <c r="R7" s="7">
-        <v>5.7160907513677381E-5</v>
-      </c>
-      <c r="S7" s="11"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="9">
+        <v>10972226.418335294</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3383569.2694758624</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4.8575038564728333E-4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17">
         <v>15031409.121444443</v>
       </c>
-      <c r="C8" s="18">
+      <c r="H8" s="18">
         <v>5678696.9203861803</v>
       </c>
-      <c r="D8" s="16">
+      <c r="I8" s="16">
         <v>1.8120505253393072E-2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="J8" s="17">
         <v>6405645.8773375005</v>
       </c>
-      <c r="F8" s="18">
+      <c r="K8" s="18">
         <v>2918702.3300820366</v>
       </c>
-      <c r="G8" s="16">
+      <c r="L8" s="16">
         <v>2.309929821561633E-3</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8">
-        <v>0.443</v>
-      </c>
-      <c r="O8" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="9">
-        <v>10972226.418335294</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>3383569.2694758624</v>
-      </c>
-      <c r="R8" s="7">
-        <v>4.8575038564728333E-4</v>
-      </c>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="9">
+        <v>22792869.998352941</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7015488.4019105276</v>
+      </c>
+      <c r="D9" s="10">
+        <v>7.4950497486431938E-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17">
         <v>30001022.775888886</v>
       </c>
-      <c r="C9" s="18">
+      <c r="H9" s="18">
         <v>10765588.815994216</v>
       </c>
-      <c r="D9" s="16">
+      <c r="I9" s="16">
         <v>6.9252094557326144E-2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="J9" s="17">
         <v>14683698.123625003</v>
       </c>
-      <c r="F9" s="18">
+      <c r="K9" s="18">
         <v>8502845.6944706384</v>
       </c>
-      <c r="G9" s="16">
+      <c r="L9" s="16">
         <v>5.604083178162736E-4</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="O9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="9">
-        <v>22792869.998352941</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>7015488.4019105276</v>
-      </c>
-      <c r="R9" s="10">
-        <v>7.4950497486431938E-4</v>
-      </c>
-      <c r="S9" s="11"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
+        <v>5412448.6495529404</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1527203.1253697858</v>
+      </c>
+      <c r="D10" s="10">
+        <v>7.3697944748638119E-4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="14">
         <v>7195765.0132555552</v>
       </c>
-      <c r="C10" s="15">
+      <c r="H10" s="15">
         <v>2644457.2364559793</v>
       </c>
-      <c r="D10" s="16">
+      <c r="I10" s="16">
         <v>5.4903253428508381E-2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="J10" s="14">
         <v>3406217.7403874998</v>
       </c>
-      <c r="F10" s="15">
+      <c r="K10" s="15">
         <v>1118595.1379912191</v>
       </c>
-      <c r="G10" s="16">
+      <c r="L10" s="16">
         <v>1.5166305026029499E-2</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="O10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="9">
-        <v>5412448.6495529404</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>1527203.1253697858</v>
-      </c>
-      <c r="R10" s="10">
-        <v>7.3697944748638119E-4</v>
-      </c>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="9">
+        <v>11653896.656023528</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3174480.5497659869</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3.1782035995896289E-3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="14">
         <v>15762848.741677778</v>
       </c>
-      <c r="C11" s="15">
+      <c r="H11" s="15">
         <v>4959389.4562959159</v>
       </c>
-      <c r="D11" s="16">
+      <c r="I11" s="16">
         <v>9.9180476375311244E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="J11" s="14">
         <v>7031325.5596625004</v>
       </c>
-      <c r="F11" s="15">
+      <c r="K11" s="15">
         <v>3399729.5936018447</v>
       </c>
-      <c r="G11" s="16">
+      <c r="L11" s="16">
         <v>2.9302469529085724E-3</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="O11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="9">
-        <v>11653896.656023528</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>3174480.5497659869</v>
-      </c>
-      <c r="R11" s="10">
-        <v>3.1782035995896289E-3</v>
-      </c>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="9">
+        <v>20527149.878211766</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5523945.417400036</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3.4951103690450246E-3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="14">
         <v>27706983.595899999</v>
       </c>
-      <c r="C12" s="15">
+      <c r="H12" s="15">
         <v>8605472.4663934074</v>
       </c>
-      <c r="D12" s="16">
+      <c r="I12" s="16">
         <v>0.17360719819983028</v>
       </c>
-      <c r="E12" s="14">
+      <c r="J12" s="14">
         <v>12449836.945812501</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>5949200.736871493</v>
       </c>
-      <c r="G12" s="16">
+      <c r="L12" s="16">
         <v>5.9715055753754177E-3</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="O12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="9">
-        <v>20527149.878211766</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>5523945.417400036</v>
-      </c>
-      <c r="R12" s="10">
-        <v>3.4951103690450246E-3</v>
-      </c>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="9">
+        <v>73.764705882352942</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5.6623949229081312</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.16780889090185103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
         <v>80.333333333333329</v>
       </c>
-      <c r="C13" s="19">
+      <c r="H13" s="19">
         <v>9.059985283284588</v>
       </c>
-      <c r="D13" s="16">
+      <c r="I13" s="16">
         <v>0.53874882922678435</v>
       </c>
-      <c r="E13" s="14">
+      <c r="J13" s="14">
         <v>66.375</v>
       </c>
-      <c r="F13" s="19">
+      <c r="K13" s="19">
         <v>5.9550023989439813</v>
       </c>
-      <c r="G13" s="16">
+      <c r="L13" s="16">
         <v>0.39344505731076712</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13">
-        <v>0.115</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="9">
-        <v>73.764705882352942</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>5.6623949229081312</v>
-      </c>
-      <c r="R13" s="10">
-        <v>0.16780889090185103</v>
-      </c>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="9">
+        <v>26.823529411764707</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2.4988751794817117</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.52266040971832628</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14">
         <v>28.555555555555557</v>
       </c>
-      <c r="C14" s="19">
+      <c r="H14" s="19">
         <v>3.3212744839189163</v>
       </c>
-      <c r="D14" s="16">
+      <c r="I14" s="16">
         <v>0.93273379780059362</v>
       </c>
-      <c r="E14" s="14">
+      <c r="J14" s="14">
         <v>24.875</v>
       </c>
-      <c r="F14" s="19">
+      <c r="K14" s="19">
         <v>3.8888003107826012</v>
       </c>
-      <c r="G14" s="16">
+      <c r="L14" s="16">
         <v>0.4201988802992998</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14">
-        <v>0.48</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="O14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="9">
-        <v>26.823529411764707</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>2.4988751794817117</v>
-      </c>
-      <c r="R14" s="10">
-        <v>0.52266040971832628</v>
-      </c>
-      <c r="S14" s="11"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="9">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2.5175852108950845</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.63646230727272757</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14">
         <v>26.777777777777779</v>
       </c>
-      <c r="C15" s="19">
+      <c r="H15" s="19">
         <v>4.2745297914825207</v>
       </c>
-      <c r="D15" s="16">
+      <c r="I15" s="16">
         <v>0.51254608211574615</v>
       </c>
-      <c r="E15" s="14">
+      <c r="J15" s="14">
         <v>18.75</v>
       </c>
-      <c r="F15" s="19">
+      <c r="K15" s="19">
         <v>1.5555201243130403</v>
       </c>
-      <c r="G15" s="16">
+      <c r="L15" s="16">
         <v>4.2194378877347859E-2</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15">
-        <v>0.114</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="O15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="9">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>2.5175852108950845</v>
-      </c>
-      <c r="R15" s="10">
-        <v>0.63646230727272757</v>
-      </c>
-      <c r="S15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="9">
+        <v>23.941176470588236</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2.4621705337007471</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.81383722461554198</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14">
         <v>25</v>
       </c>
-      <c r="C16" s="19">
+      <c r="H16" s="19">
         <v>4.2654946306899086</v>
       </c>
-      <c r="D16" s="16">
+      <c r="I16" s="16">
         <v>0.49625841741150567</v>
       </c>
-      <c r="E16" s="14">
+      <c r="J16" s="14">
         <v>22.75</v>
       </c>
-      <c r="F16" s="19">
+      <c r="K16" s="19">
         <v>2.3811011858261835</v>
       </c>
-      <c r="G16" s="16">
+      <c r="L16" s="16">
         <v>7.1319673913901593E-2</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="O16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16" s="9">
-        <v>23.941176470588236</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>2.4621705337007471</v>
-      </c>
-      <c r="R16" s="10">
-        <v>0.81383722461554198</v>
-      </c>
-      <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="9">
+        <v>64.22999999999999</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3.79589939354066</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.62860293397598543</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="14">
         <v>68.748888888888885</v>
       </c>
-      <c r="C17" s="15">
+      <c r="H17" s="15">
         <v>6.1149199241700893</v>
       </c>
-      <c r="D17" s="16">
+      <c r="I17" s="16">
         <v>0.83354526266278839</v>
       </c>
-      <c r="E17" s="14">
+      <c r="J17" s="14">
         <v>59.146250000000002</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>3.8647370717719687</v>
       </c>
-      <c r="G17" s="16">
+      <c r="L17" s="16">
         <v>0.22428511073908833</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17">
-        <v>0.109</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17" s="9">
-        <v>64.22999999999999</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>3.79589939354066</v>
-      </c>
-      <c r="R17" s="10">
-        <v>0.62860293397598543</v>
-      </c>
-      <c r="S17" s="11"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="9">
+        <v>19.748235294117645</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.1231685207267683</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.35593767117793501</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="14">
         <v>20.611111111111111</v>
       </c>
-      <c r="C18" s="15">
+      <c r="H18" s="15">
         <v>1.9615522796191316</v>
       </c>
-      <c r="D18" s="16">
+      <c r="I18" s="16">
         <v>0.5430276108480111</v>
       </c>
-      <c r="E18" s="14">
+      <c r="J18" s="14">
         <v>18.7775</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>0.96229775240603865</v>
       </c>
-      <c r="G18" s="16">
+      <c r="L18" s="16">
         <v>0.22250350153586262</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18">
-        <v>0.433</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="O18" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="9">
-        <v>19.748235294117645</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>1.1231685207267683</v>
-      </c>
-      <c r="R18" s="10">
-        <v>0.35593767117793501</v>
-      </c>
-      <c r="S18" s="11"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="9">
+        <v>21.5529411764706</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.5686718728391473</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.20960904482397683</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="14">
         <v>23.707777777777778</v>
       </c>
-      <c r="C19" s="15">
+      <c r="H19" s="15">
         <v>2.534137908297732</v>
       </c>
-      <c r="D19" s="16">
+      <c r="I19" s="16">
         <v>0.61841508476762275</v>
       </c>
-      <c r="E19" s="14">
+      <c r="J19" s="14">
         <v>19.12875</v>
       </c>
-      <c r="F19" s="15">
+      <c r="K19" s="15">
         <v>1.4524725685877857</v>
       </c>
-      <c r="G19" s="16">
+      <c r="L19" s="16">
         <v>0.46603661001182844</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19">
-        <v>0.151</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="O19" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="9">
-        <v>21.5529411764706</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>1.5686718728391473</v>
-      </c>
-      <c r="R19" s="10">
-        <v>0.20960904482397683</v>
-      </c>
-      <c r="S19" s="11"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="9">
+        <v>22.93</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.3878546181702429</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.26849265025996888</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="14">
         <v>24.43</v>
       </c>
-      <c r="C20" s="15">
+      <c r="H20" s="15">
         <v>1.9316235255464365</v>
       </c>
-      <c r="D20" s="16">
+      <c r="I20" s="16">
         <v>0.63420734876073426</v>
       </c>
-      <c r="E20" s="14">
+      <c r="J20" s="14">
         <v>21.2425</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>1.9467681551741083</v>
       </c>
-      <c r="G20" s="16">
+      <c r="L20" s="16">
         <v>0.35455601072180642</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="O20" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="9">
-        <v>22.93</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>1.3878546181702429</v>
-      </c>
-      <c r="R20" s="10">
-        <v>0.26849265025996888</v>
-      </c>
-      <c r="S20" s="11"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="9">
+        <v>2.4117647058823528</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.42059851900220857</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.7920105178468482E-2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="14">
         <v>2.5555555555555554</v>
       </c>
-      <c r="C21" s="19">
+      <c r="H21" s="19">
         <v>0.68942631366615859</v>
       </c>
-      <c r="D21" s="16">
+      <c r="I21" s="16">
         <v>3.9885997882329258E-3</v>
       </c>
-      <c r="E21" s="14">
+      <c r="J21" s="14">
         <v>2.25</v>
       </c>
-      <c r="F21" s="19">
+      <c r="K21" s="19">
         <v>0.49099025303098282</v>
       </c>
-      <c r="G21" s="16">
+      <c r="L21" s="16">
         <v>0.52066423223040548</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="9">
-        <v>2.4117647058823528</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0.42059851900220857</v>
-      </c>
-      <c r="R21" s="10">
-        <v>1.7920105178468482E-2</v>
-      </c>
-      <c r="S21" s="11"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="9">
+        <v>19.764705882352942</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.31540603808128259</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.18986397045098208</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="14">
         <v>20.333333333333332</v>
       </c>
-      <c r="C22" s="19">
+      <c r="H22" s="19">
         <v>0.37267799624996495</v>
       </c>
-      <c r="D22" s="16">
+      <c r="I22" s="16">
         <v>6.4758098338758549E-2</v>
       </c>
-      <c r="E22" s="14">
+      <c r="J22" s="14">
         <v>19.125</v>
       </c>
-      <c r="F22" s="19">
+      <c r="K22" s="19">
         <v>0.44067723854475233</v>
       </c>
-      <c r="G22" s="16">
+      <c r="L22" s="16">
         <v>0.79215770861211809</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="9">
-        <v>19.764705882352942</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0.31540603808128259</v>
-      </c>
-      <c r="R22" s="10">
-        <v>0.18986397045098208</v>
-      </c>
-      <c r="S22" s="11"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="9">
+        <v>1.9411764705882353</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.15974677192941494</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.933693962097297E-3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="14">
         <v>2.2222222222222223</v>
       </c>
-      <c r="C23" s="19">
+      <c r="H23" s="19">
         <v>0.22222222222222221</v>
       </c>
-      <c r="D23" s="16">
+      <c r="I23" s="16">
         <v>2.8406965370929863E-2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="J23" s="14">
         <v>1.625</v>
       </c>
-      <c r="F23" s="19">
+      <c r="K23" s="19">
         <v>0.18298126367784995</v>
       </c>
-      <c r="G23" s="16">
+      <c r="L23" s="16">
         <v>4.7905659618766152E-4</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23">
-        <v>0.114</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O23" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="9">
-        <v>1.9411764705882353</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0.15974677192941494</v>
-      </c>
-      <c r="R23" s="10">
-        <v>1.933693962097297E-3</v>
-      </c>
-      <c r="S23" s="11"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="9">
+        <v>1.8823529411764706</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.19893748909512771</v>
+      </c>
+      <c r="D24" s="10">
+        <v>3.79988740354354E-2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="14">
         <v>1.8333333333333333</v>
       </c>
-      <c r="C24" s="15">
+      <c r="H24" s="15">
         <v>0.32274861218395146</v>
       </c>
-      <c r="D24" s="16">
+      <c r="I24" s="16">
         <v>4.7130715943036743E-2</v>
       </c>
-      <c r="E24" s="14">
+      <c r="J24" s="14">
         <v>1.9375</v>
       </c>
-      <c r="F24" s="15">
+      <c r="K24" s="15">
         <v>0.23974502825174199</v>
       </c>
-      <c r="G24" s="16">
+      <c r="L24" s="16">
         <v>0.51237545986943844</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="9">
-        <v>1.8823529411764706</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0.19893748909512771</v>
-      </c>
-      <c r="R24" s="10">
-        <v>3.79988740354354E-2</v>
-      </c>
-      <c r="S24" s="11"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="9">
+        <v>14.9411764705882</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.46550564092189456</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1.3869686672970416E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="14">
         <v>14.555555555555555</v>
       </c>
-      <c r="C25" s="15">
+      <c r="H25" s="15">
         <v>0.72860428047800008</v>
       </c>
-      <c r="D25" s="16">
+      <c r="I25" s="16">
         <v>8.6069832424088468E-3</v>
       </c>
-      <c r="E25" s="14">
+      <c r="J25" s="14">
         <v>15.375</v>
       </c>
-      <c r="F25" s="15">
+      <c r="K25" s="15">
         <v>0.56497471498415619</v>
       </c>
-      <c r="G25" s="16">
+      <c r="L25" s="16">
         <v>6.4990831945367783E-2</v>
       </c>
-      <c r="H25" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="44">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="J25" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="9">
-        <v>14.9411764705882</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0.46550564092189456</v>
-      </c>
-      <c r="R25" s="10">
-        <v>1.3869686672970416E-2</v>
-      </c>
-      <c r="S25" s="11"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="9">
+        <v>11.0294117647059</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.5245964920816983</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.57869778264809613</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="14">
         <v>11.444444444444445</v>
       </c>
-      <c r="C26" s="15">
+      <c r="H26" s="15">
         <v>2.3100692095879767</v>
       </c>
-      <c r="D26" s="16">
+      <c r="I26" s="16">
         <v>0.24688868411225165</v>
       </c>
-      <c r="E26" s="14">
+      <c r="J26" s="14">
         <v>10.5625</v>
       </c>
-      <c r="F26" s="15">
+      <c r="K26" s="15">
         <v>2.0904491571361952</v>
       </c>
-      <c r="G26" s="16">
+      <c r="L26" s="16">
         <v>0.89759538373902115</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O26" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="9">
-        <v>11.0294117647059</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>1.5245964920816983</v>
-      </c>
-      <c r="R26" s="10">
-        <v>0.57869778264809613</v>
-      </c>
-      <c r="S26" s="11"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="9">
+        <v>171.8235294117647</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1.6252495150465882</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.93179423442849241</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="14">
         <v>168.22222222222223</v>
       </c>
-      <c r="C27" s="15">
+      <c r="H27" s="15">
         <v>2.046526717377096</v>
       </c>
-      <c r="D27" s="16">
+      <c r="I27" s="16">
         <v>0.68810780272412719</v>
       </c>
-      <c r="E27" s="14">
+      <c r="J27" s="14">
         <v>175.875</v>
       </c>
-      <c r="F27" s="15">
+      <c r="K27" s="15">
         <v>1.7365554986812253</v>
       </c>
-      <c r="G27" s="16">
+      <c r="L27" s="16">
         <v>0.22830233493212651</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="9">
-        <v>171.8235294117647</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>1.6252495150465882</v>
-      </c>
-      <c r="R27" s="10">
-        <v>0.93179423442849241</v>
-      </c>
-      <c r="S27" s="11"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="9">
+        <v>26.529411764705884</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.96298267904381762</v>
+      </c>
+      <c r="D28" s="10">
+        <v>6.476096100584823E-2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="14">
         <v>26.222222222222221</v>
       </c>
-      <c r="C28" s="15">
+      <c r="H28" s="15">
         <v>1.152024519629318</v>
       </c>
-      <c r="D28" s="16">
+      <c r="I28" s="16">
         <v>4.6135942401553658E-2</v>
       </c>
-      <c r="E28" s="14">
+      <c r="J28" s="14">
         <v>26.875</v>
       </c>
-      <c r="F28" s="15">
+      <c r="K28" s="15">
         <v>1.6630168369562586</v>
       </c>
-      <c r="G28" s="16">
+      <c r="L28" s="16">
         <v>0.49107757187128082</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="9">
-        <v>26.529411764705884</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0.96298267904381762</v>
-      </c>
-      <c r="R28" s="10">
-        <v>6.476096100584823E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="J30" s="1"/>
-      <c r="O30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="34">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="41">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D3:D28">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G28">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I28">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R28">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="L3:L28">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3050,607 +2691,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012CC0AD-9B28-46D9-9250-FAE8BF270897}">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="F2" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4">
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>C4</f>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f>H4</f>
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="H5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <f>D4</f>
-        <v>4.7E-2</v>
-      </c>
-      <c r="C6">
-        <f>D5</f>
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <f>I4</f>
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="H6">
-        <f>I5</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>0.65100000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>C10</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <f>H10</f>
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <f>D10</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="C12">
-        <f>D11</f>
-        <v>0.23</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <f>I10</f>
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="H12">
-        <f>I11</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14">
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15">
-        <v>0.56100000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <f>H15</f>
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="H16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <f>I15</f>
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <f>I16</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19">
-        <v>0.73499999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13">
-        <v>0.219</v>
-      </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <f>C20</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <f>H20</f>
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="13">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <f>D20</f>
-        <v>1.9E-2</v>
-      </c>
-      <c r="C22">
-        <f>D21</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <f>I20</f>
-        <v>0.219</v>
-      </c>
-      <c r="H22">
-        <f>I21</f>
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:D6">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:D12">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D17">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:D22">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:I17">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:I22">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCA1D98-7348-4830-9F77-35FA3104E80D}">
   <dimension ref="A2:T78"/>
   <sheetViews>
@@ -7352,17 +6392,1168 @@
     <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:N5 A8:N8 B9 A11:N11 B12 A14:N14 B15 A17:N17 B18 A20:N20 B21 A23:N23 B24 A26:N26 B27 A29:N29 B30 A32:N32 B33 A35:N35 B36 A38:N38 B39">
-    <cfRule type="cellIs" dxfId="2" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="31" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:N44 A47:N47 B48 A50:N50 B51 A53:N53 B54 A56:N56 B57 A59:N59 B60 A62:N62 B63 A65:N65 B66 A68:N68 B69 A71:N71 B72 A74:N74 B75 A77:N77 B78">
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="32" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C9FE85-CC91-498B-A682-8422AA3DBA71}">
+  <dimension ref="A1:S55"/>
+  <sheetViews>
+    <sheetView zoomScale="61" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="20"/>
+      <c r="B1" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>9966331.2386777773</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3512790.7138430048</v>
+      </c>
+      <c r="D3" s="16">
+        <v>7.3363660504012329E-2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>4501749.7332375003</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2029593.2160342773</v>
+      </c>
+      <c r="G3" s="16">
+        <v>7.2211771905522984E-3</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>13921089.805455556</v>
+      </c>
+      <c r="C4" s="18">
+        <v>6393054.0189955449</v>
+      </c>
+      <c r="D4" s="16">
+        <v>6.879645931961233E-4</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3915050.3975124997</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1646176.4438330398</v>
+      </c>
+      <c r="G4" s="16">
+        <v>7.7405015164880003E-3</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14">
+        <v>10991014.066566667</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3951239.8874015608</v>
+      </c>
+      <c r="D5" s="16">
+        <v>5.3461007073188758E-2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5121356.3383499999</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2034418.9937884149</v>
+      </c>
+      <c r="G5" s="16">
+        <v>4.0866981658194579E-2</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>0.37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
+        <v>9676768.6340999994</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2953068.3727158192</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.70160594637837981</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4313161.9601250002</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1744579.8499656059</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3.2833597147100581E-2</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17">
+        <v>7698999.0304666655</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3363714.765614308</v>
+      </c>
+      <c r="D7" s="16">
+        <v>4.3157483715240202E-3</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3608366.5596249998</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1277600.9975849367</v>
+      </c>
+      <c r="G7" s="16">
+        <v>8.4370464237915003E-3</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17">
+        <v>15031409.121444443</v>
+      </c>
+      <c r="C8" s="18">
+        <v>5678696.9203861803</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1.8120505253393072E-2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>6405645.8773375005</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2918702.3300820366</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2.309929821561633E-3</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <v>0.443</v>
+      </c>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="17">
+        <v>30001022.775888886</v>
+      </c>
+      <c r="C9" s="18">
+        <v>10765588.815994216</v>
+      </c>
+      <c r="D9" s="16">
+        <v>6.9252094557326144E-2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>14683698.123625003</v>
+      </c>
+      <c r="F9" s="18">
+        <v>8502845.6944706384</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5.604083178162736E-4</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>7195765.0132555552</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2644457.2364559793</v>
+      </c>
+      <c r="D10" s="16">
+        <v>5.4903253428508381E-2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3406217.7403874998</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1118595.1379912191</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1.5166305026029499E-2</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14">
+        <v>15762848.741677778</v>
+      </c>
+      <c r="C11" s="15">
+        <v>4959389.4562959159</v>
+      </c>
+      <c r="D11" s="16">
+        <v>9.9180476375311244E-2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7031325.5596625004</v>
+      </c>
+      <c r="F11" s="15">
+        <v>3399729.5936018447</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2.9302469529085724E-3</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14">
+        <v>27706983.595899999</v>
+      </c>
+      <c r="C12" s="15">
+        <v>8605472.4663934074</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.17360719819983028</v>
+      </c>
+      <c r="E12" s="14">
+        <v>12449836.945812501</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5949200.736871493</v>
+      </c>
+      <c r="G12" s="16">
+        <v>5.9715055753754177E-3</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14">
+        <v>80.333333333333329</v>
+      </c>
+      <c r="C13" s="19">
+        <v>9.059985283284588</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.53874882922678435</v>
+      </c>
+      <c r="E13" s="14">
+        <v>66.375</v>
+      </c>
+      <c r="F13" s="19">
+        <v>5.9550023989439813</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.39344505731076712</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>0.115</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14">
+        <v>28.555555555555557</v>
+      </c>
+      <c r="C14" s="19">
+        <v>3.3212744839189163</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.93273379780059362</v>
+      </c>
+      <c r="E14" s="14">
+        <v>24.875</v>
+      </c>
+      <c r="F14" s="19">
+        <v>3.8888003107826012</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.4201988802992998</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>0.48</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14">
+        <v>26.777777777777779</v>
+      </c>
+      <c r="C15" s="19">
+        <v>4.2745297914825207</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.51254608211574615</v>
+      </c>
+      <c r="E15" s="14">
+        <v>18.75</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1.5555201243130403</v>
+      </c>
+      <c r="G15" s="16">
+        <v>4.2194378877347859E-2</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>0.114</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14">
+        <v>25</v>
+      </c>
+      <c r="C16" s="19">
+        <v>4.2654946306899086</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.49625841741150567</v>
+      </c>
+      <c r="E16" s="14">
+        <v>22.75</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2.3811011858261835</v>
+      </c>
+      <c r="G16" s="16">
+        <v>7.1319673913901593E-2</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14">
+        <v>68.748888888888885</v>
+      </c>
+      <c r="C17" s="15">
+        <v>6.1149199241700893</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.83354526266278839</v>
+      </c>
+      <c r="E17" s="14">
+        <v>59.146250000000002</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3.8647370717719687</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.22428511073908833</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>0.109</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14">
+        <v>20.611111111111111</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1.9615522796191316</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.5430276108480111</v>
+      </c>
+      <c r="E18" s="14">
+        <v>18.7775</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.96229775240603865</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.22250350153586262</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18">
+        <v>0.433</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14">
+        <v>23.707777777777778</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2.534137908297732</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.61841508476762275</v>
+      </c>
+      <c r="E19" s="14">
+        <v>19.12875</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1.4524725685877857</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.46603661001182844</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19">
+        <v>0.151</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="14">
+        <v>24.43</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1.9316235255464365</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.63420734876073426</v>
+      </c>
+      <c r="E20" s="14">
+        <v>21.2425</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1.9467681551741083</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.35455601072180642</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.68942631366615859</v>
+      </c>
+      <c r="D21" s="16">
+        <v>3.9885997882329258E-3</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.49099025303098282</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.52066423223040548</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14">
+        <v>20.333333333333332</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0.37267799624996495</v>
+      </c>
+      <c r="D22" s="16">
+        <v>6.4758098338758549E-2</v>
+      </c>
+      <c r="E22" s="14">
+        <v>19.125</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.44067723854475233</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.79215770861211809</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D23" s="16">
+        <v>2.8406965370929863E-2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1.625</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.18298126367784995</v>
+      </c>
+      <c r="G23" s="16">
+        <v>4.7905659618766152E-4</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23">
+        <v>0.114</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.32274861218395146</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4.7130715943036743E-2</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1.9375</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.23974502825174199</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.51237545986943844</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14">
+        <v>14.555555555555555</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.72860428047800008</v>
+      </c>
+      <c r="D25" s="16">
+        <v>8.6069832424088468E-3</v>
+      </c>
+      <c r="E25" s="14">
+        <v>15.375</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.56497471498415619</v>
+      </c>
+      <c r="G25" s="16">
+        <v>6.4990831945367783E-2</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="44">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="14">
+        <v>11.444444444444445</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2.3100692095879767</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.24688868411225165</v>
+      </c>
+      <c r="E26" s="14">
+        <v>10.5625</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2.0904491571361952</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.89759538373902115</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="14">
+        <v>168.22222222222223</v>
+      </c>
+      <c r="C27" s="15">
+        <v>2.046526717377096</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.68810780272412719</v>
+      </c>
+      <c r="E27" s="14">
+        <v>175.875</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1.7365554986812253</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.22830233493212651</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14">
+        <v>26.222222222222221</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1.152024519629318</v>
+      </c>
+      <c r="D28" s="16">
+        <v>4.6135942401553658E-2</v>
+      </c>
+      <c r="E28" s="14">
+        <v>26.875</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1.6630168369562586</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.49107757187128082</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="J30" s="1"/>
+      <c r="O30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="34">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="41">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D28">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G28">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I28">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7372,174 +7563,1312 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1CD89-D6B7-46EF-B6E0-3A7269855831}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="72" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+    </row>
+    <row r="3" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="57">
+        <v>6</v>
+      </c>
+      <c r="D3" s="34">
+        <v>2</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:16" s="57" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="38">
+        <v>3</v>
+      </c>
+      <c r="D4" s="41">
+        <v>6</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+    </row>
+    <row r="5" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B6" s="20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="E6" s="57"/>
+      <c r="F6" s="47">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="47">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="59">
+        <v>17523357.096000001</v>
+      </c>
+      <c r="G8" s="60">
+        <v>6609561.4895479167</v>
+      </c>
+      <c r="H8" s="65">
+        <v>4.0528669211858562E-4</v>
+      </c>
+      <c r="I8" s="59">
+        <v>1824817.184577778</v>
+      </c>
+      <c r="J8" s="60">
+        <v>627173.64920625056</v>
+      </c>
+      <c r="K8" s="64">
+        <v>1.0553923241442456E-2</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="59">
+        <v>3.2908268202400001E-4</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="59">
+        <v>14252421.011750001</v>
+      </c>
+      <c r="G9" s="60">
+        <v>2164702.2955294233</v>
+      </c>
+      <c r="H9" s="64">
+        <v>0.24671412498468917</v>
+      </c>
+      <c r="I9" s="59">
+        <v>1772403.5613888891</v>
+      </c>
+      <c r="J9" s="60">
+        <v>564974.60221366875</v>
+      </c>
+      <c r="K9" s="64">
+        <v>0.10064482458505962</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="60">
+        <v>1.4800000000000001E-5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="62">
+        <v>90.625</v>
+      </c>
+      <c r="G10" s="61">
+        <v>7.4496823997498609</v>
+      </c>
+      <c r="H10" s="64">
+        <v>0.81668100177184555</v>
+      </c>
+      <c r="I10" s="62">
+        <v>58.777777777777779</v>
+      </c>
+      <c r="J10" s="61">
+        <v>4.2777777777777777</v>
+      </c>
+      <c r="K10" s="64">
+        <v>9.2772136149903955E-2</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="61">
+        <v>8.4398004184300002E-4</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>0</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="59">
+        <v>76.621250000000003</v>
+      </c>
+      <c r="G11" s="60">
+        <v>3.9267418507587171</v>
+      </c>
+      <c r="H11" s="64">
+        <v>0.85312439584118283</v>
+      </c>
+      <c r="I11" s="59">
+        <v>53.215555555555547</v>
+      </c>
+      <c r="J11" s="60">
+        <v>3.1961791908078445</v>
+      </c>
+      <c r="K11" s="64">
+        <v>4.9070352814836043E-2</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="59">
+        <v>1.6454134101200001E-4</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="62">
+        <v>3.375</v>
+      </c>
+      <c r="G12" s="61">
+        <v>0.70552665232637179</v>
+      </c>
+      <c r="H12" s="64">
+        <v>0.36951532509887219</v>
+      </c>
+      <c r="I12" s="62">
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="J12" s="61">
+        <v>0.29397236789606557</v>
+      </c>
+      <c r="K12" s="64">
+        <v>0.33793734281669119</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="61">
+        <v>1.2657836374216734E-2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="62">
+        <v>20</v>
+      </c>
+      <c r="G13" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="64">
+        <v>1.3739440606701207E-2</v>
+      </c>
+      <c r="I13" s="62">
+        <v>19.555555555555557</v>
+      </c>
+      <c r="J13" s="61">
+        <v>0.41201102706087012</v>
+      </c>
+      <c r="K13" s="64">
+        <v>5.5639354662455877E-2</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="61">
+        <v>0.32126696832579199</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="62">
+        <v>2.125</v>
+      </c>
+      <c r="G14" s="61">
+        <v>0.29504842217604116</v>
+      </c>
+      <c r="H14" s="64">
+        <v>6.7235842307374546E-2</v>
+      </c>
+      <c r="I14" s="62">
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="J14" s="61">
+        <v>0.14698618394803278</v>
+      </c>
+      <c r="K14" s="64">
+        <v>1.6860246970935362E-5</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="61">
+        <v>0.37038255861785302</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="61">
+        <v>2</v>
+      </c>
+      <c r="G15" s="59">
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="H15" s="64">
+        <v>0.22349157547007925</v>
+      </c>
+      <c r="I15" s="61">
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="J15" s="59">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K15" s="64">
+        <v>0.40739563911593279</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="61">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="62">
+        <v>15</v>
+      </c>
+      <c r="G16" s="61">
+        <v>0.82375447104791399</v>
+      </c>
+      <c r="H16" s="64">
+        <v>4.9479988097031601E-2</v>
+      </c>
+      <c r="I16" s="62">
+        <v>14.888888888888889</v>
+      </c>
+      <c r="J16" s="61">
+        <v>0.53863109526848107</v>
+      </c>
+      <c r="K16" s="64">
+        <v>0.10380671846507857</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="61">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="61">
+        <v>7.5625</v>
+      </c>
+      <c r="G17" s="59">
+        <v>1.7511157157652375</v>
+      </c>
+      <c r="H17" s="64">
+        <v>0.41010378848357948</v>
+      </c>
+      <c r="I17" s="61">
+        <v>14.111111111111111</v>
+      </c>
+      <c r="J17" s="59">
+        <v>1.9681099537687059</v>
+      </c>
+      <c r="K17" s="64">
+        <v>0.67989898744601851</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="61">
+        <v>1.328677026850421E-2</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
+      <c r="E18" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="62">
+        <v>172.5</v>
+      </c>
+      <c r="G18" s="61">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="64">
+        <v>0.45810504053631046</v>
+      </c>
+      <c r="I18" s="62">
+        <v>171.22222222222223</v>
+      </c>
+      <c r="J18" s="61">
+        <v>2.2408937811220784</v>
+      </c>
+      <c r="K18" s="64">
+        <v>7.393393136025464E-2</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="61">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="62">
+        <v>24.5</v>
+      </c>
+      <c r="G19" s="61">
+        <v>0.62678317052800869</v>
+      </c>
+      <c r="H19" s="64">
+        <v>9.5341165659066821E-2</v>
+      </c>
+      <c r="I19" s="62">
+        <v>28.333333333333332</v>
+      </c>
+      <c r="J19" s="61">
+        <v>1.5275252316519465</v>
+      </c>
+      <c r="K19" s="64">
+        <v>0.36180290967360951</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="61">
+        <v>2.126265040850835E-2</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="M20" s="1"/>
+      <c r="R20" s="55"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="R21" s="55"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="R22" s="55"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="55"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R24" s="55"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="37" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="R25" s="55"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="41"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="41"/>
+      <c r="R26" s="55"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R27" s="55"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R28" s="55"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R29" s="55"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R30" s="55"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M8:M19">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H19">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K19">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012CC0AD-9B28-46D9-9250-FAE8BF270897}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="F2" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>C4</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f>H4</f>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>D4</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="C6">
+        <f>D5</f>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f>I4</f>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H6">
+        <f>I5</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>C10</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <f>H10</f>
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <f>D10</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C12">
+        <f>D11</f>
+        <v>0.23</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <f>I10</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="H12">
+        <f>I11</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <f>H15</f>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <f>I15</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f>I16</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.219</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <f>C20</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <f>H20</f>
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <f>D20</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="C22">
+        <f>D21</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <f>I20</f>
+        <v>0.219</v>
+      </c>
+      <c r="H22">
+        <f>I21</f>
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:D6">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:D12">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:D17">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:D22">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:I17">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:I22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Statistics/Results/0Statistics.xlsx
+++ b/Statistics/Results/0Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorot\Desktop\MasterStudy\Statistics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2681683B-8816-41E5-A895-2CD85069E2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3520AA0-A879-40E7-A53D-CF609E4B797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92DA4F82-F3B0-4D0A-8357-BC4D58B3AC05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{92DA4F82-F3B0-4D0A-8357-BC4D58B3AC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Normality" sheetId="7" r:id="rId1"/>
@@ -1048,7 +1048,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1256,6 +1256,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1822,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6B998D-F4AD-4A04-BB93-524528C21454}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -6733,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C9FE85-CC91-498B-A682-8422AA3DBA71}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6748,7 +6751,7 @@
     <col min="7" max="7" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="17.453125" bestFit="1" customWidth="1"/>
@@ -7652,7 +7655,7 @@
       <c r="I25" s="15">
         <v>0.32800000000000001</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="88" t="s">
         <v>88</v>
       </c>
       <c r="K25" s="70">

--- a/Statistics/Results/0Statistics.xlsx
+++ b/Statistics/Results/0Statistics.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorot\Desktop\MasterStudy\Statistics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3520AA0-A879-40E7-A53D-CF609E4B797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD0E01-D219-43BD-923E-04D2046C91E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{92DA4F82-F3B0-4D0A-8357-BC4D58B3AC05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{92DA4F82-F3B0-4D0A-8357-BC4D58B3AC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Normality" sheetId="7" r:id="rId1"/>
-    <sheet name="Correlation" sheetId="2" r:id="rId2"/>
-    <sheet name="Gender" sheetId="1" r:id="rId3"/>
-    <sheet name="Sections" sheetId="5" r:id="rId4"/>
+    <sheet name="Gender" sheetId="1" r:id="rId2"/>
+    <sheet name="Sections" sheetId="5" r:id="rId3"/>
+    <sheet name="Correlation" sheetId="2" r:id="rId4"/>
     <sheet name="Cluster" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="100">
   <si>
     <t>Mean_Jerk_X</t>
   </si>
@@ -709,6 +709,18 @@
   </si>
   <si>
     <t>t(9,207)=</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Friedmann</t>
+  </si>
+  <si>
+    <t>nonparametric</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1174,9 +1186,6 @@
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1230,8 +1239,12 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1242,7 +1255,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1250,15 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1405,11 +1415,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1435,11 +1445,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1825,37 +1835,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6B998D-F4AD-4A04-BB93-524528C21454}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -2951,3829 +2962,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCA1D98-7348-4830-9F77-35FA3104E80D}">
-  <dimension ref="A2:T78"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="38">
-        <v>1</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0.48320274372271266</v>
-      </c>
-      <c r="I4" s="38">
-        <v>0.2461730357743106</v>
-      </c>
-      <c r="J4" s="38">
-        <v>4.9828707958353743E-2</v>
-      </c>
-      <c r="K4" s="38">
-        <v>2.4741610657828397E-2</v>
-      </c>
-      <c r="L4" s="38">
-        <v>-0.47746389204009992</v>
-      </c>
-      <c r="M4" s="38">
-        <v>-0.17121887787108508</v>
-      </c>
-      <c r="N4" s="38">
-        <v>-0.42191905872912916</v>
-      </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="56">
-        <v>7.760274461610496E-9</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="56">
-        <v>7.760274461610496E-9</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1.1172268753057409E-3</v>
-      </c>
-      <c r="F5" s="54">
-        <v>1.3432237477470994E-4</v>
-      </c>
-      <c r="G5" s="38">
-        <v>1.067477378193391E-2</v>
-      </c>
-      <c r="H5" s="38">
-        <v>5.7951877399200352E-2</v>
-      </c>
-      <c r="I5" s="38">
-        <v>0.35805774706035598</v>
-      </c>
-      <c r="J5" s="38">
-        <v>0.85459442350680015</v>
-      </c>
-      <c r="K5" s="38">
-        <v>0.92753107778511312</v>
-      </c>
-      <c r="L5" s="38">
-        <v>6.144010877966951E-2</v>
-      </c>
-      <c r="M5" s="38">
-        <v>0.52606168078566395</v>
-      </c>
-      <c r="N5" s="38">
-        <v>0.10355876663994987</v>
-      </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="38">
-        <v>1.1172268753057409E-3</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="41">
-        <v>16</v>
-      </c>
-      <c r="D6" s="41">
-        <v>16</v>
-      </c>
-      <c r="E6" s="41">
-        <v>16</v>
-      </c>
-      <c r="F6" s="41">
-        <v>16</v>
-      </c>
-      <c r="G6" s="41">
-        <v>16</v>
-      </c>
-      <c r="H6" s="41">
-        <v>16</v>
-      </c>
-      <c r="I6" s="41">
-        <v>16</v>
-      </c>
-      <c r="J6" s="41">
-        <v>16</v>
-      </c>
-      <c r="K6" s="41">
-        <v>16</v>
-      </c>
-      <c r="L6" s="41">
-        <v>16</v>
-      </c>
-      <c r="M6" s="41">
-        <v>16</v>
-      </c>
-      <c r="N6" s="41">
-        <v>16</v>
-      </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="54">
-        <v>1.3432237477470994E-4</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="38">
-        <v>1</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="38">
-        <v>0.35120686437134979</v>
-      </c>
-      <c r="J7" s="38">
-        <v>7.5498042361142039E-3</v>
-      </c>
-      <c r="K7" s="38">
-        <v>-6.1854026644570992E-3</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="38">
-        <v>-0.15941067939721715</v>
-      </c>
-      <c r="N7" s="38">
-        <v>-0.45892950247729841</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="S7" s="38">
-        <v>1.067477378193391E-2</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="38">
-        <v>7.760274461610496E-9</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="38">
-        <v>9.0242563743826363E-4</v>
-      </c>
-      <c r="F8" s="55">
-        <v>3.0522600677849844E-5</v>
-      </c>
-      <c r="G8" s="38">
-        <v>3.2306342693456211E-2</v>
-      </c>
-      <c r="H8" s="38">
-        <v>4.7714920106303689E-2</v>
-      </c>
-      <c r="I8" s="38">
-        <v>0.18225765333222235</v>
-      </c>
-      <c r="J8" s="38">
-        <v>0.97786183813709471</v>
-      </c>
-      <c r="K8" s="38">
-        <v>0.98186196975442908</v>
-      </c>
-      <c r="L8" s="38">
-        <v>1.7558948678773521E-2</v>
-      </c>
-      <c r="M8" s="38">
-        <v>0.55538495813347533</v>
-      </c>
-      <c r="N8" s="38">
-        <v>7.3760313275752734E-2</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="38">
-        <v>7.760274461610496E-9</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="41">
-        <v>16</v>
-      </c>
-      <c r="D9" s="41">
-        <v>16</v>
-      </c>
-      <c r="E9" s="41">
-        <v>16</v>
-      </c>
-      <c r="F9" s="41">
-        <v>16</v>
-      </c>
-      <c r="G9" s="41">
-        <v>16</v>
-      </c>
-      <c r="H9" s="41">
-        <v>16</v>
-      </c>
-      <c r="I9" s="41">
-        <v>16</v>
-      </c>
-      <c r="J9" s="41">
-        <v>16</v>
-      </c>
-      <c r="K9" s="41">
-        <v>16</v>
-      </c>
-      <c r="L9" s="41">
-        <v>16</v>
-      </c>
-      <c r="M9" s="41">
-        <v>16</v>
-      </c>
-      <c r="N9" s="41">
-        <v>16</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" s="38">
-        <v>9.0242563743826363E-4</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="43">
-        <v>1</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="38">
-        <v>0.34292804375549613</v>
-      </c>
-      <c r="H10" s="38">
-        <v>0.38114876424147986</v>
-      </c>
-      <c r="I10" s="38">
-        <v>0.30547926410670068</v>
-      </c>
-      <c r="J10" s="38">
-        <v>2.2666085079174683E-3</v>
-      </c>
-      <c r="K10" s="38">
-        <v>0.19420986250597347</v>
-      </c>
-      <c r="L10" s="43">
-        <v>-0.25591967990491821</v>
-      </c>
-      <c r="M10" s="43">
-        <v>4.0620561302688381E-2</v>
-      </c>
-      <c r="N10" s="43">
-        <v>-0.31259808133137079</v>
-      </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="S10" s="55">
-        <v>3.0522600677849844E-5</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="38">
-        <v>1.1172268753057409E-3</v>
-      </c>
-      <c r="D11" s="44">
-        <v>9.0242563743826363E-4</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="43">
-        <v>4.9938344049053715E-2</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0.19349790570780034</v>
-      </c>
-      <c r="H11" s="38">
-        <v>0.1452317280252359</v>
-      </c>
-      <c r="I11" s="38">
-        <v>0.249910494488429</v>
-      </c>
-      <c r="J11" s="38">
-        <v>0.99335297323091076</v>
-      </c>
-      <c r="K11" s="38">
-        <v>0.47107498331938324</v>
-      </c>
-      <c r="L11" s="43">
-        <v>0.33871699678165834</v>
-      </c>
-      <c r="M11" s="43">
-        <v>0.88126759048338066</v>
-      </c>
-      <c r="N11" s="43">
-        <v>0.23847904753915</v>
-      </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="38">
-        <v>3.2306342693456211E-2</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="41">
-        <v>16</v>
-      </c>
-      <c r="D12" s="41">
-        <v>16</v>
-      </c>
-      <c r="E12" s="41">
-        <v>16</v>
-      </c>
-      <c r="F12" s="41">
-        <v>16</v>
-      </c>
-      <c r="G12" s="41">
-        <v>16</v>
-      </c>
-      <c r="H12" s="41">
-        <v>16</v>
-      </c>
-      <c r="I12" s="41">
-        <v>16</v>
-      </c>
-      <c r="J12" s="41">
-        <v>16</v>
-      </c>
-      <c r="K12" s="41">
-        <v>16</v>
-      </c>
-      <c r="L12" s="41">
-        <v>16</v>
-      </c>
-      <c r="M12" s="41">
-        <v>16</v>
-      </c>
-      <c r="N12" s="41">
-        <v>16</v>
-      </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="38">
-        <v>4.7714920106303689E-2</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="43">
-        <v>1</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="38">
-        <v>0.31346033221928882</v>
-      </c>
-      <c r="J13" s="38">
-        <v>-0.16458573234728963</v>
-      </c>
-      <c r="K13" s="38">
-        <v>-0.29380662656171219</v>
-      </c>
-      <c r="L13" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="43">
-        <v>-0.29520496184669842</v>
-      </c>
-      <c r="N13" s="43">
-        <v>-0.45300783147759133</v>
-      </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="S13" s="38">
-        <v>1.7558948678773521E-2</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="54">
-        <v>1.3432237477470994E-4</v>
-      </c>
-      <c r="D14" s="55">
-        <v>3.0522600677849844E-5</v>
-      </c>
-      <c r="E14" s="43">
-        <v>4.9938344049053715E-2</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="38">
-        <v>3.2306342693456211E-2</v>
-      </c>
-      <c r="H14" s="38">
-        <v>7.0035381953898138E-3</v>
-      </c>
-      <c r="I14" s="38">
-        <v>0.23711708550828287</v>
-      </c>
-      <c r="J14" s="38">
-        <v>0.542446925377289</v>
-      </c>
-      <c r="K14" s="38">
-        <v>0.26937687919164288</v>
-      </c>
-      <c r="L14" s="43">
-        <v>2.9013935233909121E-3</v>
-      </c>
-      <c r="M14" s="43">
-        <v>0.26699756733733832</v>
-      </c>
-      <c r="N14" s="43">
-        <v>7.8049460187820524E-2</v>
-      </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" s="38">
-        <v>1.1172268753057409E-3</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="41">
-        <v>16</v>
-      </c>
-      <c r="D15" s="41">
-        <v>16</v>
-      </c>
-      <c r="E15" s="41">
-        <v>16</v>
-      </c>
-      <c r="F15" s="41">
-        <v>16</v>
-      </c>
-      <c r="G15" s="41">
-        <v>16</v>
-      </c>
-      <c r="H15" s="41">
-        <v>16</v>
-      </c>
-      <c r="I15" s="41">
-        <v>16</v>
-      </c>
-      <c r="J15" s="41">
-        <v>16</v>
-      </c>
-      <c r="K15" s="41">
-        <v>16</v>
-      </c>
-      <c r="L15" s="41">
-        <v>16</v>
-      </c>
-      <c r="M15" s="41">
-        <v>16</v>
-      </c>
-      <c r="N15" s="41">
-        <v>16</v>
-      </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="S15" s="44">
-        <v>9.0242563743826363E-4</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="38">
-        <v>0.34292804375549613</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="38">
-        <v>1</v>
-      </c>
-      <c r="H16" s="38">
-        <v>0.30758622354129961</v>
-      </c>
-      <c r="I16" s="38">
-        <v>-4.2491206080154127E-3</v>
-      </c>
-      <c r="J16" s="38">
-        <v>-2.111102316210469E-2</v>
-      </c>
-      <c r="K16" s="38">
-        <v>-0.19617962582798434</v>
-      </c>
-      <c r="L16" s="38">
-        <v>-0.29163713219248355</v>
-      </c>
-      <c r="M16" s="38">
-        <v>-0.14598453680634757</v>
-      </c>
-      <c r="N16" s="38">
-        <v>-0.11268898055815663</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" s="54">
-        <v>1.3432237477470994E-4</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="38">
-        <v>1.067477378193391E-2</v>
-      </c>
-      <c r="D17" s="38">
-        <v>3.2306342693456211E-2</v>
-      </c>
-      <c r="E17" s="38">
-        <v>0.19349790570780034</v>
-      </c>
-      <c r="F17" s="38">
-        <v>3.2306342693456211E-2</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="38">
-        <v>0.24649236007653286</v>
-      </c>
-      <c r="I17" s="38">
-        <v>0.98753940582993738</v>
-      </c>
-      <c r="J17" s="38">
-        <v>0.93814459775873182</v>
-      </c>
-      <c r="K17" s="38">
-        <v>0.46649940741217777</v>
-      </c>
-      <c r="L17" s="38">
-        <v>0.27309382106815794</v>
-      </c>
-      <c r="M17" s="38">
-        <v>0.58955921409254786</v>
-      </c>
-      <c r="N17" s="38">
-        <v>0.67776164338581935</v>
-      </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="S17" s="55">
-        <v>3.0522600677849844E-5</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="41">
-        <v>16</v>
-      </c>
-      <c r="D18" s="41">
-        <v>16</v>
-      </c>
-      <c r="E18" s="41">
-        <v>16</v>
-      </c>
-      <c r="F18" s="41">
-        <v>16</v>
-      </c>
-      <c r="G18" s="41">
-        <v>16</v>
-      </c>
-      <c r="H18" s="41">
-        <v>16</v>
-      </c>
-      <c r="I18" s="41">
-        <v>16</v>
-      </c>
-      <c r="J18" s="41">
-        <v>16</v>
-      </c>
-      <c r="K18" s="41">
-        <v>16</v>
-      </c>
-      <c r="L18" s="41">
-        <v>16</v>
-      </c>
-      <c r="M18" s="41">
-        <v>16</v>
-      </c>
-      <c r="N18" s="41">
-        <v>16</v>
-      </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" s="38">
-        <v>3.2306342693456211E-2</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="38">
-        <v>0.48320274372271266</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="38">
-        <v>0.38114876424147986</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="38">
-        <v>0.30758622354129961</v>
-      </c>
-      <c r="H19" s="38">
-        <v>1</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="38">
-        <v>-0.47243877083770369</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="38">
-        <v>-0.24904197042326867</v>
-      </c>
-      <c r="M19" s="38">
-        <v>-0.43247434026652543</v>
-      </c>
-      <c r="N19" s="38">
-        <v>0.17660288385813672</v>
-      </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="S19" s="38">
-        <v>7.0035381953898138E-3</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="38">
-        <v>5.7951877399200352E-2</v>
-      </c>
-      <c r="D20" s="38">
-        <v>4.7714920106303689E-2</v>
-      </c>
-      <c r="E20" s="38">
-        <v>0.1452317280252359</v>
-      </c>
-      <c r="F20" s="38">
-        <v>7.0035381953898138E-3</v>
-      </c>
-      <c r="G20" s="38">
-        <v>0.24649236007653286</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="38">
-        <v>3.6570857317499393E-2</v>
-      </c>
-      <c r="J20" s="38">
-        <v>6.4619024186156185E-2</v>
-      </c>
-      <c r="K20" s="38">
-        <v>1.3302567156912838E-2</v>
-      </c>
-      <c r="L20" s="38">
-        <v>0.35230189034463699</v>
-      </c>
-      <c r="M20" s="38">
-        <v>9.431821857679995E-2</v>
-      </c>
-      <c r="N20" s="38">
-        <v>0.51292974885442899</v>
-      </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="S20" s="59">
-        <v>7.0061241202599598E-3</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="41">
-        <v>16</v>
-      </c>
-      <c r="D21" s="41">
-        <v>16</v>
-      </c>
-      <c r="E21" s="41">
-        <v>16</v>
-      </c>
-      <c r="F21" s="41">
-        <v>16</v>
-      </c>
-      <c r="G21" s="41">
-        <v>16</v>
-      </c>
-      <c r="H21" s="41">
-        <v>16</v>
-      </c>
-      <c r="I21" s="41">
-        <v>16</v>
-      </c>
-      <c r="J21" s="41">
-        <v>16</v>
-      </c>
-      <c r="K21" s="41">
-        <v>16</v>
-      </c>
-      <c r="L21" s="41">
-        <v>16</v>
-      </c>
-      <c r="M21" s="41">
-        <v>16</v>
-      </c>
-      <c r="N21" s="41">
-        <v>16</v>
-      </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="S21" s="38">
-        <v>1.067477378193391E-2</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="38">
-        <v>0.2461730357743106</v>
-      </c>
-      <c r="D22" s="38">
-        <v>0.35120686437134979</v>
-      </c>
-      <c r="E22" s="38">
-        <v>0.30547926410670068</v>
-      </c>
-      <c r="F22" s="38">
-        <v>0.31346033221928882</v>
-      </c>
-      <c r="G22" s="38">
-        <v>-4.2491206080154127E-3</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="38">
-        <v>1</v>
-      </c>
-      <c r="J22" s="38">
-        <v>-3.8757134254274114E-2</v>
-      </c>
-      <c r="K22" s="38">
-        <v>-0.16566751343187539</v>
-      </c>
-      <c r="L22" s="38">
-        <v>-3.3818162574184518E-2</v>
-      </c>
-      <c r="M22" s="38">
-        <v>-1.4824986333222025E-2</v>
-      </c>
-      <c r="N22" s="38">
-        <v>-0.2147760104232426</v>
-      </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="S22" s="38">
-        <v>3.2306342693456211E-2</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="38">
-        <v>0.35805774706035598</v>
-      </c>
-      <c r="D23" s="38">
-        <v>0.18225765333222235</v>
-      </c>
-      <c r="E23" s="38">
-        <v>0.249910494488429</v>
-      </c>
-      <c r="F23" s="38">
-        <v>0.23711708550828287</v>
-      </c>
-      <c r="G23" s="38">
-        <v>0.98753940582993738</v>
-      </c>
-      <c r="H23" s="38">
-        <v>3.6570857317499393E-2</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="38">
-        <v>0.88668085407678188</v>
-      </c>
-      <c r="K23" s="38">
-        <v>0.5397593726102482</v>
-      </c>
-      <c r="L23" s="38">
-        <v>0.90105073467971297</v>
-      </c>
-      <c r="M23" s="38">
-        <v>0.95654309430989415</v>
-      </c>
-      <c r="N23" s="38">
-        <v>0.424404306658831</v>
-      </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" t="s">
-        <v>14</v>
-      </c>
-      <c r="R23" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="S23" s="38">
-        <v>3.2306342693456211E-2</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="41">
-        <v>16</v>
-      </c>
-      <c r="D24" s="41">
-        <v>16</v>
-      </c>
-      <c r="E24" s="41">
-        <v>16</v>
-      </c>
-      <c r="F24" s="41">
-        <v>16</v>
-      </c>
-      <c r="G24" s="41">
-        <v>16</v>
-      </c>
-      <c r="H24" s="41">
-        <v>16</v>
-      </c>
-      <c r="I24" s="41">
-        <v>16</v>
-      </c>
-      <c r="J24" s="41">
-        <v>16</v>
-      </c>
-      <c r="K24" s="41">
-        <v>16</v>
-      </c>
-      <c r="L24" s="41">
-        <v>16</v>
-      </c>
-      <c r="M24" s="41">
-        <v>16</v>
-      </c>
-      <c r="N24" s="41">
-        <v>16</v>
-      </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="S24" s="38">
-        <v>4.7714920106303689E-2</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="38">
-        <v>4.9828707958353743E-2</v>
-      </c>
-      <c r="D25" s="38">
-        <v>7.5498042361142039E-3</v>
-      </c>
-      <c r="E25" s="38">
-        <v>2.2666085079174683E-3</v>
-      </c>
-      <c r="F25" s="38">
-        <v>-0.16458573234728963</v>
-      </c>
-      <c r="G25" s="38">
-        <v>-2.111102316210469E-2</v>
-      </c>
-      <c r="H25" s="38">
-        <v>-0.47243877083770369</v>
-      </c>
-      <c r="I25" s="38">
-        <v>-3.8757134254274114E-2</v>
-      </c>
-      <c r="J25" s="38">
-        <v>1</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="38">
-        <v>-6.6024005385323201E-2</v>
-      </c>
-      <c r="M25" s="38">
-        <v>0.38419014456836675</v>
-      </c>
-      <c r="N25" s="38">
-        <v>-0.38685362367710135</v>
-      </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="S25" s="38">
-        <v>7.0035381953898138E-3</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="38">
-        <v>0.85459442350680015</v>
-      </c>
-      <c r="D26" s="38">
-        <v>0.97786183813709471</v>
-      </c>
-      <c r="E26" s="38">
-        <v>0.99335297323091076</v>
-      </c>
-      <c r="F26" s="38">
-        <v>0.542446925377289</v>
-      </c>
-      <c r="G26" s="38">
-        <v>0.93814459775873182</v>
-      </c>
-      <c r="H26" s="38">
-        <v>6.4619024186156185E-2</v>
-      </c>
-      <c r="I26" s="38">
-        <v>0.88668085407678188</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="38">
-        <v>1.2014406410271759E-2</v>
-      </c>
-      <c r="L26" s="38">
-        <v>0.80805394686922905</v>
-      </c>
-      <c r="M26" s="38">
-        <v>0.14178231973936256</v>
-      </c>
-      <c r="N26" s="38">
-        <v>0.13880774503007254</v>
-      </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="S26" s="38">
-        <v>3.6570857317499393E-2</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="41">
-        <v>16</v>
-      </c>
-      <c r="D27" s="41">
-        <v>16</v>
-      </c>
-      <c r="E27" s="41">
-        <v>16</v>
-      </c>
-      <c r="F27" s="41">
-        <v>16</v>
-      </c>
-      <c r="G27" s="41">
-        <v>16</v>
-      </c>
-      <c r="H27" s="41">
-        <v>16</v>
-      </c>
-      <c r="I27" s="41">
-        <v>16</v>
-      </c>
-      <c r="J27" s="41">
-        <v>16</v>
-      </c>
-      <c r="K27" s="41">
-        <v>16</v>
-      </c>
-      <c r="L27" s="41">
-        <v>16</v>
-      </c>
-      <c r="M27" s="41">
-        <v>16</v>
-      </c>
-      <c r="N27" s="41">
-        <v>16</v>
-      </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="S27" s="38">
-        <v>1.3302567156912838E-2</v>
-      </c>
-      <c r="T27" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="38">
-        <v>2.4741610657828397E-2</v>
-      </c>
-      <c r="D28" s="38">
-        <v>-6.1854026644570992E-3</v>
-      </c>
-      <c r="E28" s="38">
-        <v>0.19420986250597347</v>
-      </c>
-      <c r="F28" s="38">
-        <v>-0.29380662656171219</v>
-      </c>
-      <c r="G28" s="38">
-        <v>-0.19617962582798434</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="38">
-        <v>-0.16566751343187539</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="38">
-        <v>1</v>
-      </c>
-      <c r="L28" s="38">
-        <v>0.22460672586105038</v>
-      </c>
-      <c r="M28" s="38">
-        <v>0.37482425872967362</v>
-      </c>
-      <c r="N28" s="38">
-        <v>-0.34402773465164177</v>
-      </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>19</v>
-      </c>
-      <c r="R28" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="S28" s="38">
-        <v>3.6570857317499393E-2</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="38">
-        <v>0.92753107778511312</v>
-      </c>
-      <c r="D29" s="38">
-        <v>0.98186196975442908</v>
-      </c>
-      <c r="E29" s="38">
-        <v>0.47107498331938324</v>
-      </c>
-      <c r="F29" s="38">
-        <v>0.26937687919164288</v>
-      </c>
-      <c r="G29" s="38">
-        <v>0.46649940741217777</v>
-      </c>
-      <c r="H29" s="38">
-        <v>1.3302567156912838E-2</v>
-      </c>
-      <c r="I29" s="38">
-        <v>0.5397593726102482</v>
-      </c>
-      <c r="J29" s="38">
-        <v>1.2014406410271759E-2</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="38">
-        <v>0.40297896276857359</v>
-      </c>
-      <c r="M29" s="38">
-        <v>0.15258629865336903</v>
-      </c>
-      <c r="N29" s="38">
-        <v>0.19197943860252376</v>
-      </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="S29" s="38">
-        <v>1.2014406410271759E-2</v>
-      </c>
-      <c r="T29" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="41">
-        <v>16</v>
-      </c>
-      <c r="D30" s="41">
-        <v>16</v>
-      </c>
-      <c r="E30" s="41">
-        <v>16</v>
-      </c>
-      <c r="F30" s="41">
-        <v>16</v>
-      </c>
-      <c r="G30" s="41">
-        <v>16</v>
-      </c>
-      <c r="H30" s="41">
-        <v>16</v>
-      </c>
-      <c r="I30" s="41">
-        <v>16</v>
-      </c>
-      <c r="J30" s="41">
-        <v>16</v>
-      </c>
-      <c r="K30" s="41">
-        <v>16</v>
-      </c>
-      <c r="L30" s="41">
-        <v>16</v>
-      </c>
-      <c r="M30" s="41">
-        <v>16</v>
-      </c>
-      <c r="N30" s="41">
-        <v>16</v>
-      </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>19</v>
-      </c>
-      <c r="R30" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="S30" s="38">
-        <v>1.3302567156912838E-2</v>
-      </c>
-      <c r="T30" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="38">
-        <v>-0.47746389204009992</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="43">
-        <v>-0.25591967990491821</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="38">
-        <v>-0.29163713219248355</v>
-      </c>
-      <c r="H31" s="38">
-        <v>-0.24904197042326867</v>
-      </c>
-      <c r="I31" s="38">
-        <v>-3.3818162574184518E-2</v>
-      </c>
-      <c r="J31" s="38">
-        <v>-6.6024005385323201E-2</v>
-      </c>
-      <c r="K31" s="38">
-        <v>0.22460672586105038</v>
-      </c>
-      <c r="L31" s="43">
-        <v>1</v>
-      </c>
-      <c r="M31" s="43">
-        <v>5.1186999959306825E-2</v>
-      </c>
-      <c r="N31" s="43">
-        <v>0.4032742560348454</v>
-      </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="S31" s="38">
-        <v>1.2014406410271759E-2</v>
-      </c>
-      <c r="T31" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="38">
-        <v>6.144010877966951E-2</v>
-      </c>
-      <c r="D32" s="38">
-        <v>1.7558948678773521E-2</v>
-      </c>
-      <c r="E32" s="43">
-        <v>0.33871699678165834</v>
-      </c>
-      <c r="F32" s="43">
-        <v>2.9013935233909121E-3</v>
-      </c>
-      <c r="G32" s="38">
-        <v>0.27309382106815794</v>
-      </c>
-      <c r="H32" s="38">
-        <v>0.35230189034463699</v>
-      </c>
-      <c r="I32" s="38">
-        <v>0.90105073467971297</v>
-      </c>
-      <c r="J32" s="38">
-        <v>0.80805394686922905</v>
-      </c>
-      <c r="K32" s="38">
-        <v>0.40297896276857359</v>
-      </c>
-      <c r="L32" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="M32" s="43">
-        <v>0.85067165924775134</v>
-      </c>
-      <c r="N32" s="43">
-        <v>0.12140868895140484</v>
-      </c>
-      <c r="O32" s="39"/>
-      <c r="P32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>6</v>
-      </c>
-      <c r="R32" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="S32" s="38">
-        <v>1.7558948678773521E-2</v>
-      </c>
-      <c r="T32" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="41">
-        <v>16</v>
-      </c>
-      <c r="D33" s="41">
-        <v>16</v>
-      </c>
-      <c r="E33" s="41">
-        <v>16</v>
-      </c>
-      <c r="F33" s="41">
-        <v>16</v>
-      </c>
-      <c r="G33" s="41">
-        <v>16</v>
-      </c>
-      <c r="H33" s="41">
-        <v>16</v>
-      </c>
-      <c r="I33" s="41">
-        <v>16</v>
-      </c>
-      <c r="J33" s="41">
-        <v>16</v>
-      </c>
-      <c r="K33" s="41">
-        <v>16</v>
-      </c>
-      <c r="L33" s="41">
-        <v>16</v>
-      </c>
-      <c r="M33" s="41">
-        <v>16</v>
-      </c>
-      <c r="N33" s="41">
-        <v>16</v>
-      </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" t="s">
-        <v>14</v>
-      </c>
-      <c r="R33" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="S33" s="50">
-        <v>7.0061241202599598E-3</v>
-      </c>
-      <c r="T33" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="38">
-        <v>-0.17121887787108508</v>
-      </c>
-      <c r="D34" s="38">
-        <v>-0.15941067939721715</v>
-      </c>
-      <c r="E34" s="43">
-        <v>4.0620561302688381E-2</v>
-      </c>
-      <c r="F34" s="43">
-        <v>-0.29520496184669842</v>
-      </c>
-      <c r="G34" s="38">
-        <v>-0.14598453680634757</v>
-      </c>
-      <c r="H34" s="38">
-        <v>-0.43247434026652543</v>
-      </c>
-      <c r="I34" s="38">
-        <v>-1.4824986333222025E-2</v>
-      </c>
-      <c r="J34" s="38">
-        <v>0.38419014456836675</v>
-      </c>
-      <c r="K34" s="38">
-        <v>0.37482425872967362</v>
-      </c>
-      <c r="L34" s="43">
-        <v>5.1186999959306825E-2</v>
-      </c>
-      <c r="M34" s="43">
-        <v>1</v>
-      </c>
-      <c r="N34" s="43">
-        <v>-0.46434083197082621</v>
-      </c>
-      <c r="O34" s="39"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="S34" s="50">
-        <v>1.9444519822647967E-2</v>
-      </c>
-      <c r="T34" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="38">
-        <v>0.52606168078566395</v>
-      </c>
-      <c r="D35" s="38">
-        <v>0.55538495813347533</v>
-      </c>
-      <c r="E35" s="43">
-        <v>0.88126759048338066</v>
-      </c>
-      <c r="F35" s="43">
-        <v>0.26699756733733832</v>
-      </c>
-      <c r="G35" s="38">
-        <v>0.58955921409254786</v>
-      </c>
-      <c r="H35" s="38">
-        <v>9.431821857679995E-2</v>
-      </c>
-      <c r="I35" s="38">
-        <v>0.95654309430989415</v>
-      </c>
-      <c r="J35" s="38">
-        <v>0.14178231973936256</v>
-      </c>
-      <c r="K35" s="38">
-        <v>0.15258629865336903</v>
-      </c>
-      <c r="L35" s="43">
-        <v>0.85067165924775134</v>
-      </c>
-      <c r="M35" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="N35" s="43">
-        <v>6.9992692721273439E-2</v>
-      </c>
-      <c r="O35" s="39"/>
-      <c r="P35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="S35" s="61">
-        <v>1.9444519822647967E-2</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="41">
-        <v>16</v>
-      </c>
-      <c r="D36" s="41">
-        <v>16</v>
-      </c>
-      <c r="E36" s="41">
-        <v>16</v>
-      </c>
-      <c r="F36" s="41">
-        <v>16</v>
-      </c>
-      <c r="G36" s="41">
-        <v>16</v>
-      </c>
-      <c r="H36" s="41">
-        <v>16</v>
-      </c>
-      <c r="I36" s="41">
-        <v>16</v>
-      </c>
-      <c r="J36" s="41">
-        <v>16</v>
-      </c>
-      <c r="K36" s="41">
-        <v>16</v>
-      </c>
-      <c r="L36" s="41">
-        <v>16</v>
-      </c>
-      <c r="M36" s="41">
-        <v>16</v>
-      </c>
-      <c r="N36" s="41">
-        <v>16</v>
-      </c>
-      <c r="O36" s="39"/>
-    </row>
-    <row r="37" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="38">
-        <v>-0.42191905872912916</v>
-      </c>
-      <c r="D37" s="38">
-        <v>-0.45892950247729841</v>
-      </c>
-      <c r="E37" s="43">
-        <v>-0.31259808133137079</v>
-      </c>
-      <c r="F37" s="43">
-        <v>-0.45300783147759133</v>
-      </c>
-      <c r="G37" s="38">
-        <v>-0.11268898055815663</v>
-      </c>
-      <c r="H37" s="38">
-        <v>0.17660288385813672</v>
-      </c>
-      <c r="I37" s="38">
-        <v>-0.2147760104232426</v>
-      </c>
-      <c r="J37" s="38">
-        <v>-0.38685362367710135</v>
-      </c>
-      <c r="K37" s="38">
-        <v>-0.34402773465164177</v>
-      </c>
-      <c r="L37" s="43">
-        <v>0.4032742560348454</v>
-      </c>
-      <c r="M37" s="43">
-        <v>-0.46434083197082621</v>
-      </c>
-      <c r="N37" s="43">
-        <v>1</v>
-      </c>
-      <c r="O37" s="39"/>
-    </row>
-    <row r="38" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="38">
-        <v>0.10355876663994987</v>
-      </c>
-      <c r="D38" s="38">
-        <v>7.3760313275752734E-2</v>
-      </c>
-      <c r="E38" s="43">
-        <v>0.23847904753915</v>
-      </c>
-      <c r="F38" s="43">
-        <v>7.8049460187820524E-2</v>
-      </c>
-      <c r="G38" s="38">
-        <v>0.67776164338581935</v>
-      </c>
-      <c r="H38" s="38">
-        <v>0.51292974885442899</v>
-      </c>
-      <c r="I38" s="38">
-        <v>0.424404306658831</v>
-      </c>
-      <c r="J38" s="38">
-        <v>0.13880774503007254</v>
-      </c>
-      <c r="K38" s="38">
-        <v>0.19197943860252376</v>
-      </c>
-      <c r="L38" s="43">
-        <v>0.12140868895140484</v>
-      </c>
-      <c r="M38" s="43">
-        <v>6.9992692721273439E-2</v>
-      </c>
-      <c r="N38" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="O38" s="39"/>
-    </row>
-    <row r="39" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="41">
-        <v>16</v>
-      </c>
-      <c r="D39" s="41">
-        <v>16</v>
-      </c>
-      <c r="E39" s="41">
-        <v>16</v>
-      </c>
-      <c r="F39" s="41">
-        <v>16</v>
-      </c>
-      <c r="G39" s="41">
-        <v>16</v>
-      </c>
-      <c r="H39" s="41">
-        <v>16</v>
-      </c>
-      <c r="I39" s="41">
-        <v>16</v>
-      </c>
-      <c r="J39" s="41">
-        <v>16</v>
-      </c>
-      <c r="K39" s="41">
-        <v>16</v>
-      </c>
-      <c r="L39" s="41">
-        <v>16</v>
-      </c>
-      <c r="M39" s="41">
-        <v>16</v>
-      </c>
-      <c r="N39" s="41">
-        <v>16</v>
-      </c>
-      <c r="O39" s="39"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A41" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="45">
-        <v>1</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="47">
-        <v>0.37133165451814187</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" s="47">
-        <v>0.17134948923521154</v>
-      </c>
-      <c r="H43" s="47">
-        <v>0.37235566382536428</v>
-      </c>
-      <c r="I43" s="47">
-        <v>0.13794794590918596</v>
-      </c>
-      <c r="J43" s="47">
-        <v>-0.1176382461362632</v>
-      </c>
-      <c r="K43" s="47">
-        <v>-0.1452398221116239</v>
-      </c>
-      <c r="L43" s="47">
-        <v>-0.35544288085710857</v>
-      </c>
-      <c r="M43" s="47">
-        <v>-0.41353745522656926</v>
-      </c>
-      <c r="N43" s="47">
-        <v>-0.22040117175131516</v>
-      </c>
-      <c r="O43" s="48"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="47">
-        <v>6.4507052111141476E-5</v>
-      </c>
-      <c r="E44" s="47">
-        <v>0.15675363985894494</v>
-      </c>
-      <c r="F44" s="47">
-        <v>2.4913119639176293E-3</v>
-      </c>
-      <c r="G44" s="47">
-        <v>0.5257413167343884</v>
-      </c>
-      <c r="H44" s="47">
-        <v>0.15552395550004341</v>
-      </c>
-      <c r="I44" s="47">
-        <v>0.61041668813349081</v>
-      </c>
-      <c r="J44" s="47">
-        <v>0.66436485022391267</v>
-      </c>
-      <c r="K44" s="47">
-        <v>0.59147965623737042</v>
-      </c>
-      <c r="L44" s="47">
-        <v>0.17667623927115866</v>
-      </c>
-      <c r="M44" s="47">
-        <v>0.11133761545487758</v>
-      </c>
-      <c r="N44" s="47">
-        <v>0.41207322431551074</v>
-      </c>
-      <c r="O44" s="48"/>
-    </row>
-    <row r="45" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="45">
-        <v>16</v>
-      </c>
-      <c r="D45" s="45">
-        <v>16</v>
-      </c>
-      <c r="E45" s="45">
-        <v>16</v>
-      </c>
-      <c r="F45" s="45">
-        <v>16</v>
-      </c>
-      <c r="G45" s="45">
-        <v>16</v>
-      </c>
-      <c r="H45" s="45">
-        <v>16</v>
-      </c>
-      <c r="I45" s="45">
-        <v>16</v>
-      </c>
-      <c r="J45" s="45">
-        <v>16</v>
-      </c>
-      <c r="K45" s="45">
-        <v>16</v>
-      </c>
-      <c r="L45" s="45">
-        <v>16</v>
-      </c>
-      <c r="M45" s="45">
-        <v>16</v>
-      </c>
-      <c r="N45" s="45">
-        <v>16</v>
-      </c>
-      <c r="O45" s="48"/>
-    </row>
-    <row r="46" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="45">
-        <v>1</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="47">
-        <v>0.43302954876794342</v>
-      </c>
-      <c r="I46" s="47">
-        <v>0.34743386833706263</v>
-      </c>
-      <c r="J46" s="47">
-        <v>7.1794406234750256E-3</v>
-      </c>
-      <c r="K46" s="47">
-        <v>-9.5968468995165465E-2</v>
-      </c>
-      <c r="L46" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="M46" s="47">
-        <v>-0.23857582656602111</v>
-      </c>
-      <c r="N46" s="47">
-        <v>-0.42953430241779877</v>
-      </c>
-      <c r="O46" s="48"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="47">
-        <v>6.4507052111141476E-5</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="47">
-        <v>1.4157460754239473E-3</v>
-      </c>
-      <c r="F47" s="47">
-        <v>1.3208815379477218E-4</v>
-      </c>
-      <c r="G47" s="47">
-        <v>3.7074244027101723E-2</v>
-      </c>
-      <c r="H47" s="47">
-        <v>9.3848999430973801E-2</v>
-      </c>
-      <c r="I47" s="47">
-        <v>0.1873256559557484</v>
-      </c>
-      <c r="J47" s="47">
-        <v>0.97894761935018748</v>
-      </c>
-      <c r="K47" s="47">
-        <v>0.7236742981844726</v>
-      </c>
-      <c r="L47" s="47">
-        <v>3.6509950179690387E-2</v>
-      </c>
-      <c r="M47" s="47">
-        <v>0.3735511645482984</v>
-      </c>
-      <c r="N47" s="47">
-        <v>9.6830745538673671E-2</v>
-      </c>
-      <c r="O47" s="48"/>
-    </row>
-    <row r="48" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="45">
-        <v>16</v>
-      </c>
-      <c r="D48" s="45">
-        <v>16</v>
-      </c>
-      <c r="E48" s="45">
-        <v>16</v>
-      </c>
-      <c r="F48" s="45">
-        <v>16</v>
-      </c>
-      <c r="G48" s="45">
-        <v>16</v>
-      </c>
-      <c r="H48" s="45">
-        <v>16</v>
-      </c>
-      <c r="I48" s="45">
-        <v>16</v>
-      </c>
-      <c r="J48" s="45">
-        <v>16</v>
-      </c>
-      <c r="K48" s="45">
-        <v>16</v>
-      </c>
-      <c r="L48" s="45">
-        <v>16</v>
-      </c>
-      <c r="M48" s="45">
-        <v>16</v>
-      </c>
-      <c r="N48" s="45">
-        <v>16</v>
-      </c>
-      <c r="O48" s="48"/>
-    </row>
-    <row r="49" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="47">
-        <v>0.37133165451814187</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="51">
-        <v>1</v>
-      </c>
-      <c r="F49" s="50">
-        <v>0.39164048359175851</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="47">
-        <v>0.30344293577397258</v>
-      </c>
-      <c r="I49" s="47">
-        <v>0.42532951719263917</v>
-      </c>
-      <c r="J49" s="47">
-        <v>0.14830476277909055</v>
-      </c>
-      <c r="K49" s="47">
-        <v>0.25237569886422778</v>
-      </c>
-      <c r="L49" s="50">
-        <v>-0.28792562573497787</v>
-      </c>
-      <c r="M49" s="50">
-        <v>7.9288147387250096E-2</v>
-      </c>
-      <c r="N49" s="50">
-        <v>-0.36351420610018043</v>
-      </c>
-      <c r="O49" s="48"/>
-    </row>
-    <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="47">
-        <v>0.15675363985894494</v>
-      </c>
-      <c r="D50" s="47">
-        <v>1.4157460754239473E-3</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="50">
-        <v>0.13356955762483441</v>
-      </c>
-      <c r="G50" s="47">
-        <v>4.11558646462514E-2</v>
-      </c>
-      <c r="H50" s="47">
-        <v>0.25324183128562627</v>
-      </c>
-      <c r="I50" s="47">
-        <v>0.10050610860225791</v>
-      </c>
-      <c r="J50" s="47">
-        <v>0.58359235060073023</v>
-      </c>
-      <c r="K50" s="47">
-        <v>0.34567933303451248</v>
-      </c>
-      <c r="L50" s="50">
-        <v>0.27952446211326204</v>
-      </c>
-      <c r="M50" s="50">
-        <v>0.77037435954606304</v>
-      </c>
-      <c r="N50" s="50">
-        <v>0.16635707973250924</v>
-      </c>
-      <c r="O50" s="48"/>
-    </row>
-    <row r="51" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="45">
-        <v>16</v>
-      </c>
-      <c r="D51" s="45">
-        <v>16</v>
-      </c>
-      <c r="E51" s="45">
-        <v>16</v>
-      </c>
-      <c r="F51" s="45">
-        <v>16</v>
-      </c>
-      <c r="G51" s="45">
-        <v>16</v>
-      </c>
-      <c r="H51" s="45">
-        <v>16</v>
-      </c>
-      <c r="I51" s="45">
-        <v>16</v>
-      </c>
-      <c r="J51" s="45">
-        <v>16</v>
-      </c>
-      <c r="K51" s="45">
-        <v>16</v>
-      </c>
-      <c r="L51" s="45">
-        <v>16</v>
-      </c>
-      <c r="M51" s="45">
-        <v>16</v>
-      </c>
-      <c r="N51" s="45">
-        <v>16</v>
-      </c>
-      <c r="O51" s="48"/>
-    </row>
-    <row r="52" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="50">
-        <v>0.39164048359175851</v>
-      </c>
-      <c r="F52" s="51">
-        <v>1</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="I52" s="47">
-        <v>0.26218754766137969</v>
-      </c>
-      <c r="J52" s="47">
-        <v>-0.20613037938209047</v>
-      </c>
-      <c r="K52" s="47">
-        <v>-0.34459865577627941</v>
-      </c>
-      <c r="L52" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="M52" s="50">
-        <v>-0.2799317328697149</v>
-      </c>
-      <c r="N52" s="50">
-        <v>-0.38914158003298999</v>
-      </c>
-      <c r="O52" s="48"/>
-    </row>
-    <row r="53" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="47">
-        <v>2.4913119639176293E-3</v>
-      </c>
-      <c r="D53" s="47">
-        <v>1.3208815379477218E-4</v>
-      </c>
-      <c r="E53" s="50">
-        <v>0.13356955762483441</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="47">
-        <v>4.3905608223403489E-2</v>
-      </c>
-      <c r="H53" s="47">
-        <v>1.7600414380243769E-2</v>
-      </c>
-      <c r="I53" s="47">
-        <v>0.32660101301654187</v>
-      </c>
-      <c r="J53" s="47">
-        <v>0.44372391198076411</v>
-      </c>
-      <c r="K53" s="47">
-        <v>0.19119417955609824</v>
-      </c>
-      <c r="L53" s="50">
-        <v>7.0061241202599598E-3</v>
-      </c>
-      <c r="M53" s="50">
-        <v>0.29368223432192458</v>
-      </c>
-      <c r="N53" s="50">
-        <v>0.13628684755735201</v>
-      </c>
-      <c r="O53" s="48"/>
-    </row>
-    <row r="54" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="45">
-        <v>16</v>
-      </c>
-      <c r="D54" s="45">
-        <v>16</v>
-      </c>
-      <c r="E54" s="45">
-        <v>16</v>
-      </c>
-      <c r="F54" s="45">
-        <v>16</v>
-      </c>
-      <c r="G54" s="45">
-        <v>16</v>
-      </c>
-      <c r="H54" s="45">
-        <v>16</v>
-      </c>
-      <c r="I54" s="45">
-        <v>16</v>
-      </c>
-      <c r="J54" s="45">
-        <v>16</v>
-      </c>
-      <c r="K54" s="45">
-        <v>16</v>
-      </c>
-      <c r="L54" s="45">
-        <v>16</v>
-      </c>
-      <c r="M54" s="45">
-        <v>16</v>
-      </c>
-      <c r="N54" s="45">
-        <v>16</v>
-      </c>
-      <c r="O54" s="48"/>
-    </row>
-    <row r="55" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="47">
-        <v>0.17134948923521154</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="45">
-        <v>1</v>
-      </c>
-      <c r="H55" s="47">
-        <v>0.26711100566891333</v>
-      </c>
-      <c r="I55" s="47">
-        <v>0.18849659873418823</v>
-      </c>
-      <c r="J55" s="47">
-        <v>-9.3608871924322004E-2</v>
-      </c>
-      <c r="K55" s="47">
-        <v>-0.2551562469170493</v>
-      </c>
-      <c r="L55" s="47">
-        <v>-0.28881666202164846</v>
-      </c>
-      <c r="M55" s="47">
-        <v>-1.4756180473351694E-2</v>
-      </c>
-      <c r="N55" s="47">
-        <v>-0.13313070235891933</v>
-      </c>
-      <c r="O55" s="48"/>
-    </row>
-    <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="47">
-        <v>0.5257413167343884</v>
-      </c>
-      <c r="D56" s="47">
-        <v>3.7074244027101723E-2</v>
-      </c>
-      <c r="E56" s="47">
-        <v>4.11558646462514E-2</v>
-      </c>
-      <c r="F56" s="47">
-        <v>4.3905608223403489E-2</v>
-      </c>
-      <c r="G56" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="47">
-        <v>0.31726176390200039</v>
-      </c>
-      <c r="I56" s="47">
-        <v>0.48446963750748084</v>
-      </c>
-      <c r="J56" s="47">
-        <v>0.73022931434174654</v>
-      </c>
-      <c r="K56" s="47">
-        <v>0.34020999980230515</v>
-      </c>
-      <c r="L56" s="47">
-        <v>0.27797236823905858</v>
-      </c>
-      <c r="M56" s="47">
-        <v>0.95674461084984319</v>
-      </c>
-      <c r="N56" s="47">
-        <v>0.62305631725745114</v>
-      </c>
-      <c r="O56" s="48"/>
-    </row>
-    <row r="57" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="45">
-        <v>16</v>
-      </c>
-      <c r="D57" s="45">
-        <v>16</v>
-      </c>
-      <c r="E57" s="45">
-        <v>16</v>
-      </c>
-      <c r="F57" s="45">
-        <v>16</v>
-      </c>
-      <c r="G57" s="45">
-        <v>16</v>
-      </c>
-      <c r="H57" s="45">
-        <v>16</v>
-      </c>
-      <c r="I57" s="45">
-        <v>16</v>
-      </c>
-      <c r="J57" s="45">
-        <v>16</v>
-      </c>
-      <c r="K57" s="45">
-        <v>16</v>
-      </c>
-      <c r="L57" s="45">
-        <v>16</v>
-      </c>
-      <c r="M57" s="45">
-        <v>16</v>
-      </c>
-      <c r="N57" s="45">
-        <v>16</v>
-      </c>
-      <c r="O57" s="48"/>
-    </row>
-    <row r="58" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="47">
-        <v>0.37235566382536428</v>
-      </c>
-      <c r="D58" s="47">
-        <v>0.43302954876794342</v>
-      </c>
-      <c r="E58" s="47">
-        <v>0.30344293577397258</v>
-      </c>
-      <c r="F58" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="47">
-        <v>0.26711100566891333</v>
-      </c>
-      <c r="H58" s="45">
-        <v>1</v>
-      </c>
-      <c r="I58" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="J58" s="47">
-        <v>-0.40873907199607129</v>
-      </c>
-      <c r="K58" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="L58" s="47">
-        <v>-0.14981647938795101</v>
-      </c>
-      <c r="M58" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="N58" s="47">
-        <v>0.13176347020699172</v>
-      </c>
-      <c r="O58" s="48"/>
-    </row>
-    <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="47">
-        <v>0.15552395550004341</v>
-      </c>
-      <c r="D59" s="47">
-        <v>9.3848999430973801E-2</v>
-      </c>
-      <c r="E59" s="47">
-        <v>0.25324183128562627</v>
-      </c>
-      <c r="F59" s="47">
-        <v>1.7600414380243769E-2</v>
-      </c>
-      <c r="G59" s="47">
-        <v>0.31726176390200039</v>
-      </c>
-      <c r="H59" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" s="47">
-        <v>3.1082894213286406E-2</v>
-      </c>
-      <c r="J59" s="47">
-        <v>0.11597052636176242</v>
-      </c>
-      <c r="K59" s="47">
-        <v>3.0410582125454319E-2</v>
-      </c>
-      <c r="L59" s="47">
-        <v>0.57971821561972003</v>
-      </c>
-      <c r="M59" s="47">
-        <v>2.1270141363327652E-2</v>
-      </c>
-      <c r="N59" s="47">
-        <v>0.62666194301417755</v>
-      </c>
-      <c r="O59" s="48"/>
-    </row>
-    <row r="60" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="45">
-        <v>16</v>
-      </c>
-      <c r="D60" s="45">
-        <v>16</v>
-      </c>
-      <c r="E60" s="45">
-        <v>16</v>
-      </c>
-      <c r="F60" s="45">
-        <v>16</v>
-      </c>
-      <c r="G60" s="45">
-        <v>16</v>
-      </c>
-      <c r="H60" s="45">
-        <v>16</v>
-      </c>
-      <c r="I60" s="45">
-        <v>16</v>
-      </c>
-      <c r="J60" s="45">
-        <v>16</v>
-      </c>
-      <c r="K60" s="45">
-        <v>16</v>
-      </c>
-      <c r="L60" s="45">
-        <v>16</v>
-      </c>
-      <c r="M60" s="45">
-        <v>16</v>
-      </c>
-      <c r="N60" s="45">
-        <v>16</v>
-      </c>
-      <c r="O60" s="48"/>
-    </row>
-    <row r="61" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="47">
-        <v>0.13794794590918596</v>
-      </c>
-      <c r="D61" s="47">
-        <v>0.34743386833706263</v>
-      </c>
-      <c r="E61" s="47">
-        <v>0.42532951719263917</v>
-      </c>
-      <c r="F61" s="47">
-        <v>0.26218754766137969</v>
-      </c>
-      <c r="G61" s="47">
-        <v>0.18849659873418823</v>
-      </c>
-      <c r="H61" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="I61" s="45">
-        <v>1</v>
-      </c>
-      <c r="J61" s="47">
-        <v>-1.4474523737201655E-2</v>
-      </c>
-      <c r="K61" s="47">
-        <v>-0.10199916209296957</v>
-      </c>
-      <c r="L61" s="47">
-        <v>-0.10125888111511151</v>
-      </c>
-      <c r="M61" s="47">
-        <v>-0.10774761107338722</v>
-      </c>
-      <c r="N61" s="47">
-        <v>-0.30084004167014516</v>
-      </c>
-      <c r="O61" s="48"/>
-    </row>
-    <row r="62" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="47">
-        <v>0.61041668813349081</v>
-      </c>
-      <c r="D62" s="47">
-        <v>0.1873256559557484</v>
-      </c>
-      <c r="E62" s="47">
-        <v>0.10050610860225791</v>
-      </c>
-      <c r="F62" s="47">
-        <v>0.32660101301654187</v>
-      </c>
-      <c r="G62" s="47">
-        <v>0.48446963750748084</v>
-      </c>
-      <c r="H62" s="47">
-        <v>3.1082894213286406E-2</v>
-      </c>
-      <c r="I62" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="J62" s="47">
-        <v>0.95756954413499495</v>
-      </c>
-      <c r="K62" s="47">
-        <v>0.70700340958145258</v>
-      </c>
-      <c r="L62" s="47">
-        <v>0.70904326013928609</v>
-      </c>
-      <c r="M62" s="47">
-        <v>0.69122796883467708</v>
-      </c>
-      <c r="N62" s="47">
-        <v>0.25753981949695687</v>
-      </c>
-      <c r="O62" s="48"/>
-    </row>
-    <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="45">
-        <v>16</v>
-      </c>
-      <c r="D63" s="45">
-        <v>16</v>
-      </c>
-      <c r="E63" s="45">
-        <v>16</v>
-      </c>
-      <c r="F63" s="45">
-        <v>16</v>
-      </c>
-      <c r="G63" s="45">
-        <v>16</v>
-      </c>
-      <c r="H63" s="45">
-        <v>16</v>
-      </c>
-      <c r="I63" s="45">
-        <v>16</v>
-      </c>
-      <c r="J63" s="45">
-        <v>16</v>
-      </c>
-      <c r="K63" s="45">
-        <v>16</v>
-      </c>
-      <c r="L63" s="45">
-        <v>16</v>
-      </c>
-      <c r="M63" s="45">
-        <v>16</v>
-      </c>
-      <c r="N63" s="45">
-        <v>16</v>
-      </c>
-      <c r="O63" s="48"/>
-    </row>
-    <row r="64" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="47">
-        <v>-0.1176382461362632</v>
-      </c>
-      <c r="D64" s="47">
-        <v>7.1794406234750256E-3</v>
-      </c>
-      <c r="E64" s="47">
-        <v>0.14830476277909055</v>
-      </c>
-      <c r="F64" s="47">
-        <v>-0.20613037938209047</v>
-      </c>
-      <c r="G64" s="47">
-        <v>-9.3608871924322004E-2</v>
-      </c>
-      <c r="H64" s="47">
-        <v>-0.40873907199607129</v>
-      </c>
-      <c r="I64" s="47">
-        <v>-1.4474523737201655E-2</v>
-      </c>
-      <c r="J64" s="45">
-        <v>1</v>
-      </c>
-      <c r="K64" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="L64" s="47">
-        <v>-7.7144000431252344E-2</v>
-      </c>
-      <c r="M64" s="47">
-        <v>0.26313492814518874</v>
-      </c>
-      <c r="N64" s="47">
-        <v>-0.2959293746891834</v>
-      </c>
-      <c r="O64" s="48"/>
-    </row>
-    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="47">
-        <v>0.66436485022391267</v>
-      </c>
-      <c r="D65" s="47">
-        <v>0.97894761935018748</v>
-      </c>
-      <c r="E65" s="47">
-        <v>0.58359235060073023</v>
-      </c>
-      <c r="F65" s="47">
-        <v>0.44372391198076411</v>
-      </c>
-      <c r="G65" s="47">
-        <v>0.73022931434174654</v>
-      </c>
-      <c r="H65" s="47">
-        <v>0.11597052636176242</v>
-      </c>
-      <c r="I65" s="47">
-        <v>0.95756954413499495</v>
-      </c>
-      <c r="J65" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="K65" s="47">
-        <v>2.0851413902326976E-2</v>
-      </c>
-      <c r="L65" s="47">
-        <v>0.77643500078554972</v>
-      </c>
-      <c r="M65" s="47">
-        <v>0.32479174361484592</v>
-      </c>
-      <c r="N65" s="47">
-        <v>0.2657700188706148</v>
-      </c>
-      <c r="O65" s="48"/>
-    </row>
-    <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="45">
-        <v>16</v>
-      </c>
-      <c r="D66" s="45">
-        <v>16</v>
-      </c>
-      <c r="E66" s="45">
-        <v>16</v>
-      </c>
-      <c r="F66" s="45">
-        <v>16</v>
-      </c>
-      <c r="G66" s="45">
-        <v>16</v>
-      </c>
-      <c r="H66" s="45">
-        <v>16</v>
-      </c>
-      <c r="I66" s="45">
-        <v>16</v>
-      </c>
-      <c r="J66" s="45">
-        <v>16</v>
-      </c>
-      <c r="K66" s="45">
-        <v>16</v>
-      </c>
-      <c r="L66" s="45">
-        <v>16</v>
-      </c>
-      <c r="M66" s="45">
-        <v>16</v>
-      </c>
-      <c r="N66" s="45">
-        <v>16</v>
-      </c>
-      <c r="O66" s="48"/>
-    </row>
-    <row r="67" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="47">
-        <v>-0.1452398221116239</v>
-      </c>
-      <c r="D67" s="47">
-        <v>-9.5968468995165465E-2</v>
-      </c>
-      <c r="E67" s="47">
-        <v>0.25237569886422778</v>
-      </c>
-      <c r="F67" s="47">
-        <v>-0.34459865577627941</v>
-      </c>
-      <c r="G67" s="47">
-        <v>-0.2551562469170493</v>
-      </c>
-      <c r="H67" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="I67" s="47">
-        <v>-0.10199916209296957</v>
-      </c>
-      <c r="J67" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="K67" s="45">
-        <v>1</v>
-      </c>
-      <c r="L67" s="47">
-        <v>6.9644534325538673E-2</v>
-      </c>
-      <c r="M67" s="47">
-        <v>0.41846555882976683</v>
-      </c>
-      <c r="N67" s="47">
-        <v>-0.28857969516117948</v>
-      </c>
-      <c r="O67" s="48"/>
-    </row>
-    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="47">
-        <v>0.59147965623737042</v>
-      </c>
-      <c r="D68" s="47">
-        <v>0.7236742981844726</v>
-      </c>
-      <c r="E68" s="47">
-        <v>0.34567933303451248</v>
-      </c>
-      <c r="F68" s="47">
-        <v>0.19119417955609824</v>
-      </c>
-      <c r="G68" s="47">
-        <v>0.34020999980230515</v>
-      </c>
-      <c r="H68" s="47">
-        <v>3.0410582125454319E-2</v>
-      </c>
-      <c r="I68" s="47">
-        <v>0.70700340958145258</v>
-      </c>
-      <c r="J68" s="47">
-        <v>2.0851413902326976E-2</v>
-      </c>
-      <c r="K68" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="L68" s="47">
-        <v>0.7977261759990909</v>
-      </c>
-      <c r="M68" s="47">
-        <v>0.10671598916153828</v>
-      </c>
-      <c r="N68" s="47">
-        <v>0.27838463071001923</v>
-      </c>
-      <c r="O68" s="48"/>
-    </row>
-    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="45">
-        <v>16</v>
-      </c>
-      <c r="D69" s="45">
-        <v>16</v>
-      </c>
-      <c r="E69" s="45">
-        <v>16</v>
-      </c>
-      <c r="F69" s="45">
-        <v>16</v>
-      </c>
-      <c r="G69" s="45">
-        <v>16</v>
-      </c>
-      <c r="H69" s="45">
-        <v>16</v>
-      </c>
-      <c r="I69" s="45">
-        <v>16</v>
-      </c>
-      <c r="J69" s="45">
-        <v>16</v>
-      </c>
-      <c r="K69" s="45">
-        <v>16</v>
-      </c>
-      <c r="L69" s="45">
-        <v>16</v>
-      </c>
-      <c r="M69" s="45">
-        <v>16</v>
-      </c>
-      <c r="N69" s="45">
-        <v>16</v>
-      </c>
-      <c r="O69" s="48"/>
-    </row>
-    <row r="70" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="47">
-        <v>-0.35544288085710857</v>
-      </c>
-      <c r="D70" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="50">
-        <v>-0.28792562573497787</v>
-      </c>
-      <c r="F70" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" s="47">
-        <v>-0.28881666202164846</v>
-      </c>
-      <c r="H70" s="47">
-        <v>-0.14981647938795101</v>
-      </c>
-      <c r="I70" s="47">
-        <v>-0.10125888111511151</v>
-      </c>
-      <c r="J70" s="47">
-        <v>-7.7144000431252344E-2</v>
-      </c>
-      <c r="K70" s="47">
-        <v>6.9644534325538673E-2</v>
-      </c>
-      <c r="L70" s="51">
-        <v>1</v>
-      </c>
-      <c r="M70" s="50">
-        <v>-9.3018096698364208E-2</v>
-      </c>
-      <c r="N70" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="O70" s="48"/>
-    </row>
-    <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="47">
-        <v>0.17667623927115866</v>
-      </c>
-      <c r="D71" s="47">
-        <v>3.6509950179690387E-2</v>
-      </c>
-      <c r="E71" s="50">
-        <v>0.27952446211326204</v>
-      </c>
-      <c r="F71" s="50">
-        <v>7.0061241202599598E-3</v>
-      </c>
-      <c r="G71" s="47">
-        <v>0.27797236823905858</v>
-      </c>
-      <c r="H71" s="47">
-        <v>0.57971821561972003</v>
-      </c>
-      <c r="I71" s="47">
-        <v>0.70904326013928609</v>
-      </c>
-      <c r="J71" s="47">
-        <v>0.77643500078554972</v>
-      </c>
-      <c r="K71" s="47">
-        <v>0.7977261759990909</v>
-      </c>
-      <c r="L71" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="M71" s="50">
-        <v>0.73187326488926541</v>
-      </c>
-      <c r="N71" s="50">
-        <v>1.9444519822647967E-2</v>
-      </c>
-      <c r="O71" s="48"/>
-    </row>
-    <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="45">
-        <v>16</v>
-      </c>
-      <c r="D72" s="45">
-        <v>16</v>
-      </c>
-      <c r="E72" s="45">
-        <v>16</v>
-      </c>
-      <c r="F72" s="45">
-        <v>16</v>
-      </c>
-      <c r="G72" s="45">
-        <v>16</v>
-      </c>
-      <c r="H72" s="45">
-        <v>16</v>
-      </c>
-      <c r="I72" s="45">
-        <v>16</v>
-      </c>
-      <c r="J72" s="45">
-        <v>16</v>
-      </c>
-      <c r="K72" s="45">
-        <v>16</v>
-      </c>
-      <c r="L72" s="45">
-        <v>16</v>
-      </c>
-      <c r="M72" s="45">
-        <v>16</v>
-      </c>
-      <c r="N72" s="45">
-        <v>16</v>
-      </c>
-      <c r="O72" s="48"/>
-    </row>
-    <row r="73" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="47">
-        <v>-0.41353745522656926</v>
-      </c>
-      <c r="D73" s="47">
-        <v>-0.23857582656602111</v>
-      </c>
-      <c r="E73" s="50">
-        <v>7.9288147387250096E-2</v>
-      </c>
-      <c r="F73" s="50">
-        <v>-0.2799317328697149</v>
-      </c>
-      <c r="G73" s="47">
-        <v>-1.4756180473351694E-2</v>
-      </c>
-      <c r="H73" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="I73" s="47">
-        <v>-0.10774761107338722</v>
-      </c>
-      <c r="J73" s="47">
-        <v>0.26313492814518874</v>
-      </c>
-      <c r="K73" s="47">
-        <v>0.41846555882976683</v>
-      </c>
-      <c r="L73" s="50">
-        <v>-9.3018096698364208E-2</v>
-      </c>
-      <c r="M73" s="51">
-        <v>1</v>
-      </c>
-      <c r="N73" s="50">
-        <v>-0.38183306405607803</v>
-      </c>
-      <c r="O73" s="48"/>
-    </row>
-    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="47">
-        <v>0.11133761545487758</v>
-      </c>
-      <c r="D74" s="47">
-        <v>0.3735511645482984</v>
-      </c>
-      <c r="E74" s="50">
-        <v>0.77037435954606304</v>
-      </c>
-      <c r="F74" s="50">
-        <v>0.29368223432192458</v>
-      </c>
-      <c r="G74" s="47">
-        <v>0.95674461084984319</v>
-      </c>
-      <c r="H74" s="47">
-        <v>2.1270141363327652E-2</v>
-      </c>
-      <c r="I74" s="47">
-        <v>0.69122796883467708</v>
-      </c>
-      <c r="J74" s="47">
-        <v>0.32479174361484592</v>
-      </c>
-      <c r="K74" s="47">
-        <v>0.10671598916153828</v>
-      </c>
-      <c r="L74" s="50">
-        <v>0.73187326488926541</v>
-      </c>
-      <c r="M74" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="N74" s="50">
-        <v>0.14445070006423164</v>
-      </c>
-      <c r="O74" s="48"/>
-    </row>
-    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B75" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="45">
-        <v>16</v>
-      </c>
-      <c r="D75" s="45">
-        <v>16</v>
-      </c>
-      <c r="E75" s="45">
-        <v>16</v>
-      </c>
-      <c r="F75" s="45">
-        <v>16</v>
-      </c>
-      <c r="G75" s="45">
-        <v>16</v>
-      </c>
-      <c r="H75" s="45">
-        <v>16</v>
-      </c>
-      <c r="I75" s="45">
-        <v>16</v>
-      </c>
-      <c r="J75" s="45">
-        <v>16</v>
-      </c>
-      <c r="K75" s="45">
-        <v>16</v>
-      </c>
-      <c r="L75" s="45">
-        <v>16</v>
-      </c>
-      <c r="M75" s="45">
-        <v>16</v>
-      </c>
-      <c r="N75" s="45">
-        <v>16</v>
-      </c>
-      <c r="O75" s="48"/>
-    </row>
-    <row r="76" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="47">
-        <v>-0.22040117175131516</v>
-      </c>
-      <c r="D76" s="47">
-        <v>-0.42953430241779877</v>
-      </c>
-      <c r="E76" s="50">
-        <v>-0.36351420610018043</v>
-      </c>
-      <c r="F76" s="50">
-        <v>-0.38914158003298999</v>
-      </c>
-      <c r="G76" s="47">
-        <v>-0.13313070235891933</v>
-      </c>
-      <c r="H76" s="47">
-        <v>0.13176347020699172</v>
-      </c>
-      <c r="I76" s="47">
-        <v>-0.30084004167014516</v>
-      </c>
-      <c r="J76" s="47">
-        <v>-0.2959293746891834</v>
-      </c>
-      <c r="K76" s="47">
-        <v>-0.28857969516117948</v>
-      </c>
-      <c r="L76" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="M76" s="50">
-        <v>-0.38183306405607803</v>
-      </c>
-      <c r="N76" s="51">
-        <v>1</v>
-      </c>
-      <c r="O76" s="48"/>
-    </row>
-    <row r="77" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="47">
-        <v>0.41207322431551074</v>
-      </c>
-      <c r="D77" s="47">
-        <v>9.6830745538673671E-2</v>
-      </c>
-      <c r="E77" s="50">
-        <v>0.16635707973250924</v>
-      </c>
-      <c r="F77" s="50">
-        <v>0.13628684755735201</v>
-      </c>
-      <c r="G77" s="47">
-        <v>0.62305631725745114</v>
-      </c>
-      <c r="H77" s="47">
-        <v>0.62666194301417755</v>
-      </c>
-      <c r="I77" s="47">
-        <v>0.25753981949695687</v>
-      </c>
-      <c r="J77" s="47">
-        <v>0.2657700188706148</v>
-      </c>
-      <c r="K77" s="47">
-        <v>0.27838463071001923</v>
-      </c>
-      <c r="L77" s="50">
-        <v>1.9444519822647967E-2</v>
-      </c>
-      <c r="M77" s="50">
-        <v>0.14445070006423164</v>
-      </c>
-      <c r="N77" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="O77" s="48"/>
-    </row>
-    <row r="78" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="45">
-        <v>16</v>
-      </c>
-      <c r="D78" s="45">
-        <v>16</v>
-      </c>
-      <c r="E78" s="45">
-        <v>16</v>
-      </c>
-      <c r="F78" s="45">
-        <v>16</v>
-      </c>
-      <c r="G78" s="45">
-        <v>16</v>
-      </c>
-      <c r="H78" s="45">
-        <v>16</v>
-      </c>
-      <c r="I78" s="45">
-        <v>16</v>
-      </c>
-      <c r="J78" s="45">
-        <v>16</v>
-      </c>
-      <c r="K78" s="45">
-        <v>16</v>
-      </c>
-      <c r="L78" s="45">
-        <v>16</v>
-      </c>
-      <c r="M78" s="45">
-        <v>16</v>
-      </c>
-      <c r="N78" s="45">
-        <v>16</v>
-      </c>
-      <c r="O78" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="P3:Q3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A5:N5 A8:N8 B9 A11:N11 B12 A14:N14 B15 A17:N17 B18 A20:N20 B21 A23:N23 B24 A26:N26 B27 A29:N29 B30 A32:N32 B33 A35:N35 B36 A38:N38 B39">
-    <cfRule type="cellIs" dxfId="18" priority="64" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:N44 A47:N47 B48 A50:N50 B51 A53:N53 B54 A56:N56 B57 A59:N59 B60 A62:N62 B63 A65:N65 B66 A68:N68 B69 A71:N71 B72 A74:N74 B75 A77:N77 B78">
-    <cfRule type="cellIs" dxfId="17" priority="65" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S35">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C9FE85-CC91-498B-A682-8422AA3DBA71}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScale="74" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82" t="s">
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="22"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -6839,10 +3068,10 @@
       <c r="I3">
         <v>0.27900000000000003</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="66">
         <v>21</v>
       </c>
       <c r="T3" s="2"/>
@@ -6875,10 +3104,10 @@
       <c r="I4">
         <v>0.27900000000000003</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="66">
         <v>21</v>
       </c>
       <c r="T4" s="2"/>
@@ -6911,10 +3140,10 @@
       <c r="I5">
         <v>0.32800000000000001</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="66">
         <v>22</v>
       </c>
       <c r="T5" s="2"/>
@@ -6947,10 +3176,10 @@
       <c r="I6">
         <v>0.161</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="66">
         <v>18</v>
       </c>
       <c r="T6" s="2"/>
@@ -6984,7 +3213,7 @@
         <v>0.245</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="68"/>
+      <c r="K7" s="67"/>
       <c r="L7" t="s">
         <v>37</v>
       </c>
@@ -6993,6 +3222,9 @@
       </c>
       <c r="N7">
         <v>0.57099999999999995</v>
+      </c>
+      <c r="P7" t="s">
+        <v>97</v>
       </c>
       <c r="T7" s="2"/>
     </row>
@@ -7025,7 +3257,7 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="68"/>
+      <c r="K8" s="67"/>
       <c r="L8" t="s">
         <v>39</v>
       </c>
@@ -7034,6 +3266,9 @@
       </c>
       <c r="N8">
         <v>0.374</v>
+      </c>
+      <c r="P8" t="s">
+        <v>98</v>
       </c>
       <c r="T8" s="2"/>
     </row>
@@ -7066,7 +3301,7 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="68"/>
+      <c r="K9" s="67"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
@@ -7098,7 +3333,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="68"/>
+      <c r="K10" s="67"/>
       <c r="L10" t="s">
         <v>37</v>
       </c>
@@ -7139,7 +3374,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="68"/>
+      <c r="K11" s="67"/>
       <c r="L11" t="s">
         <v>39</v>
       </c>
@@ -7180,7 +3415,7 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="68"/>
+      <c r="K12" s="67"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
@@ -7208,13 +3443,13 @@
       <c r="H13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="63">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="67">
         <v>1.48</v>
       </c>
       <c r="T13" s="2"/>
@@ -7244,11 +3479,11 @@
       <c r="H14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="63">
         <v>0.24199999999999999</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="68"/>
+      <c r="K14" s="67"/>
       <c r="L14" t="s">
         <v>37</v>
       </c>
@@ -7285,11 +3520,11 @@
       <c r="H15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="63">
         <v>0.109</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="68"/>
+      <c r="K15" s="67"/>
       <c r="L15" t="s">
         <v>39</v>
       </c>
@@ -7326,11 +3561,11 @@
       <c r="H16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="63">
         <v>0.66600000000000004</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="68"/>
+      <c r="K16" s="67"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
@@ -7364,7 +3599,7 @@
       <c r="J17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="68">
         <v>1.2889999999999999</v>
       </c>
       <c r="T17" s="2"/>
@@ -7394,11 +3629,11 @@
       <c r="H18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="63">
         <v>0.36599999999999999</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="68"/>
+      <c r="K18" s="67"/>
       <c r="L18" t="s">
         <v>37</v>
       </c>
@@ -7435,11 +3670,11 @@
       <c r="H19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="63">
         <v>0.17499999999999999</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="68"/>
+      <c r="K19" s="67"/>
       <c r="L19" t="s">
         <v>39</v>
       </c>
@@ -7476,11 +3711,11 @@
       <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="63">
         <v>0.26900000000000002</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="68"/>
+      <c r="K20" s="67"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
@@ -7508,13 +3743,13 @@
       <c r="H21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="63">
         <v>0.95899999999999996</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K21" s="67">
         <v>31</v>
       </c>
       <c r="T21" s="2"/>
@@ -7544,13 +3779,13 @@
       <c r="H22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="63">
         <v>0.13</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="68">
+      <c r="K22" s="67">
         <v>17.5</v>
       </c>
       <c r="T22" s="2"/>
@@ -7580,13 +3815,13 @@
       <c r="H23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="63">
         <v>0.105</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="68">
+      <c r="K23" s="67">
         <v>16.5</v>
       </c>
       <c r="T23" s="2"/>
@@ -7616,13 +3851,13 @@
       <c r="H24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="63">
         <v>0.505</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="68">
+      <c r="K24" s="67">
         <v>25</v>
       </c>
       <c r="T24" s="2"/>
@@ -7655,10 +3890,10 @@
       <c r="I25" s="15">
         <v>0.32800000000000001</v>
       </c>
-      <c r="J25" s="88" t="s">
+      <c r="J25" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="69">
         <v>22.5</v>
       </c>
       <c r="T25" s="2"/>
@@ -7694,7 +3929,7 @@
       <c r="J26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="68">
         <v>0.16900000000000001</v>
       </c>
       <c r="T26" s="2"/>
@@ -7730,7 +3965,7 @@
       <c r="J27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="68">
+      <c r="K27" s="67">
         <v>-2.58</v>
       </c>
       <c r="T27" s="2"/>
@@ -7766,7 +4001,7 @@
       <c r="J28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="67">
         <v>-1.21</v>
       </c>
     </row>
@@ -7787,7 +4022,9 @@
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="H30" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
@@ -7841,12 +4078,12 @@
     </row>
     <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="61"/>
     </row>
     <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
@@ -7937,25 +4174,25 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="C31:C32">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D28 G3:G28">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I28">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7963,12 +4200,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012CC0AD-9B28-46D9-9250-FAE8BF270897}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7981,31 +4218,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="87"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="F2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="87"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -8120,15 +4357,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="65"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="66"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="66"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -8231,15 +4468,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="65"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="66"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="65"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="66"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -8342,15 +4579,15 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="65"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="66"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="65"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="66"/>
+      <c r="I17" s="65"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -8385,6 +4622,9 @@
       <c r="L19" t="s">
         <v>38</v>
       </c>
+      <c r="M19">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -8416,6 +4656,9 @@
       </c>
       <c r="L20" t="s">
         <v>38</v>
+      </c>
+      <c r="M20">
+        <v>0.441</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -8453,42 +4696,42 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:D4 B5:D6">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:D9 B10:D11">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14 B15:D16">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:D19 B20:D21">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I4 G5:I6">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:I9 G10:I11">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:I14 G15:I16">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:I19 G20:I21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8496,27 +4739,3810 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1CD89-D6B7-46EF-B6E0-3A7269855831}">
-  <dimension ref="A1:S30"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCA1D98-7348-4830-9F77-35FA3104E80D}">
+  <dimension ref="A2:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="72" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView zoomScale="48" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="38">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0.48320274372271266</v>
+      </c>
+      <c r="I4" s="38">
+        <v>0.2461730357743106</v>
+      </c>
+      <c r="J4" s="38">
+        <v>4.9828707958353743E-2</v>
+      </c>
+      <c r="K4" s="38">
+        <v>2.4741610657828397E-2</v>
+      </c>
+      <c r="L4" s="38">
+        <v>-0.47746389204009992</v>
+      </c>
+      <c r="M4" s="38">
+        <v>-0.17121887787108508</v>
+      </c>
+      <c r="N4" s="38">
+        <v>-0.42191905872912916</v>
+      </c>
+      <c r="O4" s="40"/>
+      <c r="P4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="56">
+        <v>7.760274461610496E-9</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="56">
+        <v>7.760274461610496E-9</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1.1172268753057409E-3</v>
+      </c>
+      <c r="F5" s="54">
+        <v>1.3432237477470994E-4</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1.067477378193391E-2</v>
+      </c>
+      <c r="H5" s="38">
+        <v>5.7951877399200352E-2</v>
+      </c>
+      <c r="I5" s="38">
+        <v>0.35805774706035598</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0.85459442350680015</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0.92753107778511312</v>
+      </c>
+      <c r="L5" s="38">
+        <v>6.144010877966951E-2</v>
+      </c>
+      <c r="M5" s="38">
+        <v>0.52606168078566395</v>
+      </c>
+      <c r="N5" s="38">
+        <v>0.10355876663994987</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="38">
+        <v>1.1172268753057409E-3</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="41">
+        <v>16</v>
+      </c>
+      <c r="D6" s="41">
+        <v>16</v>
+      </c>
+      <c r="E6" s="41">
+        <v>16</v>
+      </c>
+      <c r="F6" s="41">
+        <v>16</v>
+      </c>
+      <c r="G6" s="41">
+        <v>16</v>
+      </c>
+      <c r="H6" s="41">
+        <v>16</v>
+      </c>
+      <c r="I6" s="41">
+        <v>16</v>
+      </c>
+      <c r="J6" s="41">
+        <v>16</v>
+      </c>
+      <c r="K6" s="41">
+        <v>16</v>
+      </c>
+      <c r="L6" s="41">
+        <v>16</v>
+      </c>
+      <c r="M6" s="41">
+        <v>16</v>
+      </c>
+      <c r="N6" s="41">
+        <v>16</v>
+      </c>
+      <c r="O6" s="39"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="54">
+        <v>1.3432237477470994E-4</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="38">
+        <v>1</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="38">
+        <v>0.35120686437134979</v>
+      </c>
+      <c r="J7" s="38">
+        <v>7.5498042361142039E-3</v>
+      </c>
+      <c r="K7" s="38">
+        <v>-6.1854026644570992E-3</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="38">
+        <v>-0.15941067939721715</v>
+      </c>
+      <c r="N7" s="38">
+        <v>-0.45892950247729841</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="38">
+        <v>1.067477378193391E-2</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="56">
+        <v>7.760274461610496E-9</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="38">
+        <v>9.0242563743826363E-4</v>
+      </c>
+      <c r="F8" s="55">
+        <v>3.0522600677849844E-5</v>
+      </c>
+      <c r="G8" s="38">
+        <v>3.2306342693456211E-2</v>
+      </c>
+      <c r="H8" s="38">
+        <v>4.7714920106303689E-2</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.18225765333222235</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.97786183813709471</v>
+      </c>
+      <c r="K8" s="38">
+        <v>0.98186196975442908</v>
+      </c>
+      <c r="L8" s="38">
+        <v>1.7558948678773521E-2</v>
+      </c>
+      <c r="M8" s="38">
+        <v>0.55538495813347533</v>
+      </c>
+      <c r="N8" s="38">
+        <v>7.3760313275752734E-2</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="56">
+        <v>7.760274461610496E-9</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="41">
+        <v>16</v>
+      </c>
+      <c r="D9" s="41">
+        <v>16</v>
+      </c>
+      <c r="E9" s="41">
+        <v>16</v>
+      </c>
+      <c r="F9" s="41">
+        <v>16</v>
+      </c>
+      <c r="G9" s="41">
+        <v>16</v>
+      </c>
+      <c r="H9" s="41">
+        <v>16</v>
+      </c>
+      <c r="I9" s="41">
+        <v>16</v>
+      </c>
+      <c r="J9" s="41">
+        <v>16</v>
+      </c>
+      <c r="K9" s="41">
+        <v>16</v>
+      </c>
+      <c r="L9" s="41">
+        <v>16</v>
+      </c>
+      <c r="M9" s="41">
+        <v>16</v>
+      </c>
+      <c r="N9" s="41">
+        <v>16</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="38">
+        <v>9.0242563743826363E-4</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="43">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.34292804375549613</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0.38114876424147986</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.30547926410670068</v>
+      </c>
+      <c r="J10" s="38">
+        <v>2.2666085079174683E-3</v>
+      </c>
+      <c r="K10" s="38">
+        <v>0.19420986250597347</v>
+      </c>
+      <c r="L10" s="43">
+        <v>-0.25591967990491821</v>
+      </c>
+      <c r="M10" s="43">
+        <v>4.0620561302688381E-2</v>
+      </c>
+      <c r="N10" s="43">
+        <v>-0.31259808133137079</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="55">
+        <v>3.0522600677849844E-5</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="38">
+        <v>1.1172268753057409E-3</v>
+      </c>
+      <c r="D11" s="44">
+        <v>9.0242563743826363E-4</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="43">
+        <v>4.9938344049053715E-2</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0.19349790570780034</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.1452317280252359</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.249910494488429</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.99335297323091076</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0.47107498331938324</v>
+      </c>
+      <c r="L11" s="43">
+        <v>0.33871699678165834</v>
+      </c>
+      <c r="M11" s="43">
+        <v>0.88126759048338066</v>
+      </c>
+      <c r="N11" s="43">
+        <v>0.23847904753915</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="38">
+        <v>3.2306342693456211E-2</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="41">
+        <v>16</v>
+      </c>
+      <c r="D12" s="41">
+        <v>16</v>
+      </c>
+      <c r="E12" s="41">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41">
+        <v>16</v>
+      </c>
+      <c r="G12" s="41">
+        <v>16</v>
+      </c>
+      <c r="H12" s="41">
+        <v>16</v>
+      </c>
+      <c r="I12" s="41">
+        <v>16</v>
+      </c>
+      <c r="J12" s="41">
+        <v>16</v>
+      </c>
+      <c r="K12" s="41">
+        <v>16</v>
+      </c>
+      <c r="L12" s="41">
+        <v>16</v>
+      </c>
+      <c r="M12" s="41">
+        <v>16</v>
+      </c>
+      <c r="N12" s="41">
+        <v>16</v>
+      </c>
+      <c r="O12" s="39"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="38">
+        <v>4.7714920106303689E-2</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="43">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0.31346033221928882</v>
+      </c>
+      <c r="J13" s="38">
+        <v>-0.16458573234728963</v>
+      </c>
+      <c r="K13" s="38">
+        <v>-0.29380662656171219</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="43">
+        <v>-0.29520496184669842</v>
+      </c>
+      <c r="N13" s="43">
+        <v>-0.45300783147759133</v>
+      </c>
+      <c r="O13" s="39"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="38">
+        <v>1.7558948678773521E-2</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="54">
+        <v>1.3432237477470994E-4</v>
+      </c>
+      <c r="D14" s="55">
+        <v>3.0522600677849844E-5</v>
+      </c>
+      <c r="E14" s="43">
+        <v>4.9938344049053715E-2</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="38">
+        <v>3.2306342693456211E-2</v>
+      </c>
+      <c r="H14" s="38">
+        <v>7.0035381953898138E-3</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.23711708550828287</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.542446925377289</v>
+      </c>
+      <c r="K14" s="38">
+        <v>0.26937687919164288</v>
+      </c>
+      <c r="L14" s="43">
+        <v>2.9013935233909121E-3</v>
+      </c>
+      <c r="M14" s="43">
+        <v>0.26699756733733832</v>
+      </c>
+      <c r="N14" s="43">
+        <v>7.8049460187820524E-2</v>
+      </c>
+      <c r="O14" s="39"/>
+      <c r="P14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="38">
+        <v>1.1172268753057409E-3</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="41">
+        <v>16</v>
+      </c>
+      <c r="D15" s="41">
+        <v>16</v>
+      </c>
+      <c r="E15" s="41">
+        <v>16</v>
+      </c>
+      <c r="F15" s="41">
+        <v>16</v>
+      </c>
+      <c r="G15" s="41">
+        <v>16</v>
+      </c>
+      <c r="H15" s="41">
+        <v>16</v>
+      </c>
+      <c r="I15" s="41">
+        <v>16</v>
+      </c>
+      <c r="J15" s="41">
+        <v>16</v>
+      </c>
+      <c r="K15" s="41">
+        <v>16</v>
+      </c>
+      <c r="L15" s="41">
+        <v>16</v>
+      </c>
+      <c r="M15" s="41">
+        <v>16</v>
+      </c>
+      <c r="N15" s="41">
+        <v>16</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" s="44">
+        <v>9.0242563743826363E-4</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0.34292804375549613</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="38">
+        <v>1</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0.30758622354129961</v>
+      </c>
+      <c r="I16" s="38">
+        <v>-4.2491206080154127E-3</v>
+      </c>
+      <c r="J16" s="38">
+        <v>-2.111102316210469E-2</v>
+      </c>
+      <c r="K16" s="38">
+        <v>-0.19617962582798434</v>
+      </c>
+      <c r="L16" s="38">
+        <v>-0.29163713219248355</v>
+      </c>
+      <c r="M16" s="38">
+        <v>-0.14598453680634757</v>
+      </c>
+      <c r="N16" s="38">
+        <v>-0.11268898055815663</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="54">
+        <v>1.3432237477470994E-4</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="38">
+        <v>1.067477378193391E-2</v>
+      </c>
+      <c r="D17" s="38">
+        <v>3.2306342693456211E-2</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0.19349790570780034</v>
+      </c>
+      <c r="F17" s="38">
+        <v>3.2306342693456211E-2</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="38">
+        <v>0.24649236007653286</v>
+      </c>
+      <c r="I17" s="38">
+        <v>0.98753940582993738</v>
+      </c>
+      <c r="J17" s="38">
+        <v>0.93814459775873182</v>
+      </c>
+      <c r="K17" s="38">
+        <v>0.46649940741217777</v>
+      </c>
+      <c r="L17" s="38">
+        <v>0.27309382106815794</v>
+      </c>
+      <c r="M17" s="38">
+        <v>0.58955921409254786</v>
+      </c>
+      <c r="N17" s="38">
+        <v>0.67776164338581935</v>
+      </c>
+      <c r="O17" s="39"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="55">
+        <v>3.0522600677849844E-5</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="41">
+        <v>16</v>
+      </c>
+      <c r="D18" s="41">
+        <v>16</v>
+      </c>
+      <c r="E18" s="41">
+        <v>16</v>
+      </c>
+      <c r="F18" s="41">
+        <v>16</v>
+      </c>
+      <c r="G18" s="41">
+        <v>16</v>
+      </c>
+      <c r="H18" s="41">
+        <v>16</v>
+      </c>
+      <c r="I18" s="41">
+        <v>16</v>
+      </c>
+      <c r="J18" s="41">
+        <v>16</v>
+      </c>
+      <c r="K18" s="41">
+        <v>16</v>
+      </c>
+      <c r="L18" s="41">
+        <v>16</v>
+      </c>
+      <c r="M18" s="41">
+        <v>16</v>
+      </c>
+      <c r="N18" s="41">
+        <v>16</v>
+      </c>
+      <c r="O18" s="39"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="38">
+        <v>3.2306342693456211E-2</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="38">
+        <v>0.48320274372271266</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="38">
+        <v>0.38114876424147986</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="38">
+        <v>0.30758622354129961</v>
+      </c>
+      <c r="H19" s="38">
+        <v>1</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="38">
+        <v>-0.47243877083770369</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="38">
+        <v>-0.24904197042326867</v>
+      </c>
+      <c r="M19" s="38">
+        <v>-0.43247434026652543</v>
+      </c>
+      <c r="N19" s="38">
+        <v>0.17660288385813672</v>
+      </c>
+      <c r="O19" s="39"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="38">
+        <v>7.0035381953898138E-3</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="38">
+        <v>5.7951877399200352E-2</v>
+      </c>
+      <c r="D20" s="38">
+        <v>4.7714920106303689E-2</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0.1452317280252359</v>
+      </c>
+      <c r="F20" s="38">
+        <v>7.0035381953898138E-3</v>
+      </c>
+      <c r="G20" s="38">
+        <v>0.24649236007653286</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="38">
+        <v>3.6570857317499393E-2</v>
+      </c>
+      <c r="J20" s="38">
+        <v>6.4619024186156185E-2</v>
+      </c>
+      <c r="K20" s="38">
+        <v>1.3302567156912838E-2</v>
+      </c>
+      <c r="L20" s="38">
+        <v>0.35230189034463699</v>
+      </c>
+      <c r="M20" s="38">
+        <v>9.431821857679995E-2</v>
+      </c>
+      <c r="N20" s="38">
+        <v>0.51292974885442899</v>
+      </c>
+      <c r="O20" s="39"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="S20" s="58">
+        <v>7.0061241202599598E-3</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="41">
+        <v>16</v>
+      </c>
+      <c r="D21" s="41">
+        <v>16</v>
+      </c>
+      <c r="E21" s="41">
+        <v>16</v>
+      </c>
+      <c r="F21" s="41">
+        <v>16</v>
+      </c>
+      <c r="G21" s="41">
+        <v>16</v>
+      </c>
+      <c r="H21" s="41">
+        <v>16</v>
+      </c>
+      <c r="I21" s="41">
+        <v>16</v>
+      </c>
+      <c r="J21" s="41">
+        <v>16</v>
+      </c>
+      <c r="K21" s="41">
+        <v>16</v>
+      </c>
+      <c r="L21" s="41">
+        <v>16</v>
+      </c>
+      <c r="M21" s="41">
+        <v>16</v>
+      </c>
+      <c r="N21" s="41">
+        <v>16</v>
+      </c>
+      <c r="O21" s="39"/>
+      <c r="P21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="S21" s="38">
+        <v>1.067477378193391E-2</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="38">
+        <v>0.2461730357743106</v>
+      </c>
+      <c r="D22" s="38">
+        <v>0.35120686437134979</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0.30547926410670068</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0.31346033221928882</v>
+      </c>
+      <c r="G22" s="38">
+        <v>-4.2491206080154127E-3</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="38">
+        <v>1</v>
+      </c>
+      <c r="J22" s="38">
+        <v>-3.8757134254274114E-2</v>
+      </c>
+      <c r="K22" s="38">
+        <v>-0.16566751343187539</v>
+      </c>
+      <c r="L22" s="38">
+        <v>-3.3818162574184518E-2</v>
+      </c>
+      <c r="M22" s="38">
+        <v>-1.4824986333222025E-2</v>
+      </c>
+      <c r="N22" s="38">
+        <v>-0.2147760104232426</v>
+      </c>
+      <c r="O22" s="39"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="38">
+        <v>3.2306342693456211E-2</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0.35805774706035598</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0.18225765333222235</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0.249910494488429</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0.23711708550828287</v>
+      </c>
+      <c r="G23" s="38">
+        <v>0.98753940582993738</v>
+      </c>
+      <c r="H23" s="38">
+        <v>3.6570857317499393E-2</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="38">
+        <v>0.88668085407678188</v>
+      </c>
+      <c r="K23" s="38">
+        <v>0.5397593726102482</v>
+      </c>
+      <c r="L23" s="38">
+        <v>0.90105073467971297</v>
+      </c>
+      <c r="M23" s="38">
+        <v>0.95654309430989415</v>
+      </c>
+      <c r="N23" s="38">
+        <v>0.424404306658831</v>
+      </c>
+      <c r="O23" s="39"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" s="38">
+        <v>3.2306342693456211E-2</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="41">
+        <v>16</v>
+      </c>
+      <c r="D24" s="41">
+        <v>16</v>
+      </c>
+      <c r="E24" s="41">
+        <v>16</v>
+      </c>
+      <c r="F24" s="41">
+        <v>16</v>
+      </c>
+      <c r="G24" s="41">
+        <v>16</v>
+      </c>
+      <c r="H24" s="41">
+        <v>16</v>
+      </c>
+      <c r="I24" s="41">
+        <v>16</v>
+      </c>
+      <c r="J24" s="41">
+        <v>16</v>
+      </c>
+      <c r="K24" s="41">
+        <v>16</v>
+      </c>
+      <c r="L24" s="41">
+        <v>16</v>
+      </c>
+      <c r="M24" s="41">
+        <v>16</v>
+      </c>
+      <c r="N24" s="41">
+        <v>16</v>
+      </c>
+      <c r="O24" s="39"/>
+      <c r="P24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="38">
+        <v>4.7714920106303689E-2</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="38">
+        <v>4.9828707958353743E-2</v>
+      </c>
+      <c r="D25" s="38">
+        <v>7.5498042361142039E-3</v>
+      </c>
+      <c r="E25" s="38">
+        <v>2.2666085079174683E-3</v>
+      </c>
+      <c r="F25" s="38">
+        <v>-0.16458573234728963</v>
+      </c>
+      <c r="G25" s="38">
+        <v>-2.111102316210469E-2</v>
+      </c>
+      <c r="H25" s="38">
+        <v>-0.47243877083770369</v>
+      </c>
+      <c r="I25" s="38">
+        <v>-3.8757134254274114E-2</v>
+      </c>
+      <c r="J25" s="38">
+        <v>1</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="38">
+        <v>-6.6024005385323201E-2</v>
+      </c>
+      <c r="M25" s="38">
+        <v>0.38419014456836675</v>
+      </c>
+      <c r="N25" s="38">
+        <v>-0.38685362367710135</v>
+      </c>
+      <c r="O25" s="39"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="38">
+        <v>7.0035381953898138E-3</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="38">
+        <v>0.85459442350680015</v>
+      </c>
+      <c r="D26" s="38">
+        <v>0.97786183813709471</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0.99335297323091076</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.542446925377289</v>
+      </c>
+      <c r="G26" s="38">
+        <v>0.93814459775873182</v>
+      </c>
+      <c r="H26" s="38">
+        <v>6.4619024186156185E-2</v>
+      </c>
+      <c r="I26" s="38">
+        <v>0.88668085407678188</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="38">
+        <v>1.2014406410271759E-2</v>
+      </c>
+      <c r="L26" s="38">
+        <v>0.80805394686922905</v>
+      </c>
+      <c r="M26" s="38">
+        <v>0.14178231973936256</v>
+      </c>
+      <c r="N26" s="38">
+        <v>0.13880774503007254</v>
+      </c>
+      <c r="O26" s="39"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" s="38">
+        <v>3.6570857317499393E-2</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="41">
+        <v>16</v>
+      </c>
+      <c r="D27" s="41">
+        <v>16</v>
+      </c>
+      <c r="E27" s="41">
+        <v>16</v>
+      </c>
+      <c r="F27" s="41">
+        <v>16</v>
+      </c>
+      <c r="G27" s="41">
+        <v>16</v>
+      </c>
+      <c r="H27" s="41">
+        <v>16</v>
+      </c>
+      <c r="I27" s="41">
+        <v>16</v>
+      </c>
+      <c r="J27" s="41">
+        <v>16</v>
+      </c>
+      <c r="K27" s="41">
+        <v>16</v>
+      </c>
+      <c r="L27" s="41">
+        <v>16</v>
+      </c>
+      <c r="M27" s="41">
+        <v>16</v>
+      </c>
+      <c r="N27" s="41">
+        <v>16</v>
+      </c>
+      <c r="O27" s="39"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="38">
+        <v>1.3302567156912838E-2</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="38">
+        <v>2.4741610657828397E-2</v>
+      </c>
+      <c r="D28" s="38">
+        <v>-6.1854026644570992E-3</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0.19420986250597347</v>
+      </c>
+      <c r="F28" s="38">
+        <v>-0.29380662656171219</v>
+      </c>
+      <c r="G28" s="38">
+        <v>-0.19617962582798434</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="38">
+        <v>-0.16566751343187539</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="38">
+        <v>1</v>
+      </c>
+      <c r="L28" s="38">
+        <v>0.22460672586105038</v>
+      </c>
+      <c r="M28" s="38">
+        <v>0.37482425872967362</v>
+      </c>
+      <c r="N28" s="38">
+        <v>-0.34402773465164177</v>
+      </c>
+      <c r="O28" s="39"/>
+      <c r="P28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="38">
+        <v>3.6570857317499393E-2</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="38">
+        <v>0.92753107778511312</v>
+      </c>
+      <c r="D29" s="38">
+        <v>0.98186196975442908</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0.47107498331938324</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0.26937687919164288</v>
+      </c>
+      <c r="G29" s="38">
+        <v>0.46649940741217777</v>
+      </c>
+      <c r="H29" s="38">
+        <v>1.3302567156912838E-2</v>
+      </c>
+      <c r="I29" s="38">
+        <v>0.5397593726102482</v>
+      </c>
+      <c r="J29" s="38">
+        <v>1.2014406410271759E-2</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="38">
+        <v>0.40297896276857359</v>
+      </c>
+      <c r="M29" s="38">
+        <v>0.15258629865336903</v>
+      </c>
+      <c r="N29" s="38">
+        <v>0.19197943860252376</v>
+      </c>
+      <c r="O29" s="39"/>
+      <c r="P29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="S29" s="38">
+        <v>1.2014406410271759E-2</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="41">
+        <v>16</v>
+      </c>
+      <c r="D30" s="41">
+        <v>16</v>
+      </c>
+      <c r="E30" s="41">
+        <v>16</v>
+      </c>
+      <c r="F30" s="41">
+        <v>16</v>
+      </c>
+      <c r="G30" s="41">
+        <v>16</v>
+      </c>
+      <c r="H30" s="41">
+        <v>16</v>
+      </c>
+      <c r="I30" s="41">
+        <v>16</v>
+      </c>
+      <c r="J30" s="41">
+        <v>16</v>
+      </c>
+      <c r="K30" s="41">
+        <v>16</v>
+      </c>
+      <c r="L30" s="41">
+        <v>16</v>
+      </c>
+      <c r="M30" s="41">
+        <v>16</v>
+      </c>
+      <c r="N30" s="41">
+        <v>16</v>
+      </c>
+      <c r="O30" s="39"/>
+      <c r="P30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S30" s="38">
+        <v>1.3302567156912838E-2</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="38">
+        <v>-0.47746389204009992</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="43">
+        <v>-0.25591967990491821</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="38">
+        <v>-0.29163713219248355</v>
+      </c>
+      <c r="H31" s="38">
+        <v>-0.24904197042326867</v>
+      </c>
+      <c r="I31" s="38">
+        <v>-3.3818162574184518E-2</v>
+      </c>
+      <c r="J31" s="38">
+        <v>-6.6024005385323201E-2</v>
+      </c>
+      <c r="K31" s="38">
+        <v>0.22460672586105038</v>
+      </c>
+      <c r="L31" s="43">
+        <v>1</v>
+      </c>
+      <c r="M31" s="43">
+        <v>5.1186999959306825E-2</v>
+      </c>
+      <c r="N31" s="43">
+        <v>0.4032742560348454</v>
+      </c>
+      <c r="O31" s="39"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="S31" s="38">
+        <v>1.2014406410271759E-2</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="38">
+        <v>6.144010877966951E-2</v>
+      </c>
+      <c r="D32" s="38">
+        <v>1.7558948678773521E-2</v>
+      </c>
+      <c r="E32" s="43">
+        <v>0.33871699678165834</v>
+      </c>
+      <c r="F32" s="43">
+        <v>2.9013935233909121E-3</v>
+      </c>
+      <c r="G32" s="38">
+        <v>0.27309382106815794</v>
+      </c>
+      <c r="H32" s="38">
+        <v>0.35230189034463699</v>
+      </c>
+      <c r="I32" s="38">
+        <v>0.90105073467971297</v>
+      </c>
+      <c r="J32" s="38">
+        <v>0.80805394686922905</v>
+      </c>
+      <c r="K32" s="38">
+        <v>0.40297896276857359</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="43">
+        <v>0.85067165924775134</v>
+      </c>
+      <c r="N32" s="43">
+        <v>0.12140868895140484</v>
+      </c>
+      <c r="O32" s="39"/>
+      <c r="P32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>6</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="S32" s="38">
+        <v>1.7558948678773521E-2</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="41">
+        <v>16</v>
+      </c>
+      <c r="D33" s="41">
+        <v>16</v>
+      </c>
+      <c r="E33" s="41">
+        <v>16</v>
+      </c>
+      <c r="F33" s="41">
+        <v>16</v>
+      </c>
+      <c r="G33" s="41">
+        <v>16</v>
+      </c>
+      <c r="H33" s="41">
+        <v>16</v>
+      </c>
+      <c r="I33" s="41">
+        <v>16</v>
+      </c>
+      <c r="J33" s="41">
+        <v>16</v>
+      </c>
+      <c r="K33" s="41">
+        <v>16</v>
+      </c>
+      <c r="L33" s="41">
+        <v>16</v>
+      </c>
+      <c r="M33" s="41">
+        <v>16</v>
+      </c>
+      <c r="N33" s="41">
+        <v>16</v>
+      </c>
+      <c r="O33" s="39"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="S33" s="50">
+        <v>7.0061241202599598E-3</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="38">
+        <v>-0.17121887787108508</v>
+      </c>
+      <c r="D34" s="38">
+        <v>-0.15941067939721715</v>
+      </c>
+      <c r="E34" s="43">
+        <v>4.0620561302688381E-2</v>
+      </c>
+      <c r="F34" s="43">
+        <v>-0.29520496184669842</v>
+      </c>
+      <c r="G34" s="38">
+        <v>-0.14598453680634757</v>
+      </c>
+      <c r="H34" s="38">
+        <v>-0.43247434026652543</v>
+      </c>
+      <c r="I34" s="38">
+        <v>-1.4824986333222025E-2</v>
+      </c>
+      <c r="J34" s="38">
+        <v>0.38419014456836675</v>
+      </c>
+      <c r="K34" s="38">
+        <v>0.37482425872967362</v>
+      </c>
+      <c r="L34" s="43">
+        <v>5.1186999959306825E-2</v>
+      </c>
+      <c r="M34" s="43">
+        <v>1</v>
+      </c>
+      <c r="N34" s="43">
+        <v>-0.46434083197082621</v>
+      </c>
+      <c r="O34" s="39"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="S34" s="50">
+        <v>1.9444519822647967E-2</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="38">
+        <v>0.52606168078566395</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0.55538495813347533</v>
+      </c>
+      <c r="E35" s="43">
+        <v>0.88126759048338066</v>
+      </c>
+      <c r="F35" s="43">
+        <v>0.26699756733733832</v>
+      </c>
+      <c r="G35" s="38">
+        <v>0.58955921409254786</v>
+      </c>
+      <c r="H35" s="38">
+        <v>9.431821857679995E-2</v>
+      </c>
+      <c r="I35" s="38">
+        <v>0.95654309430989415</v>
+      </c>
+      <c r="J35" s="38">
+        <v>0.14178231973936256</v>
+      </c>
+      <c r="K35" s="38">
+        <v>0.15258629865336903</v>
+      </c>
+      <c r="L35" s="43">
+        <v>0.85067165924775134</v>
+      </c>
+      <c r="M35" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="43">
+        <v>6.9992692721273439E-2</v>
+      </c>
+      <c r="O35" s="39"/>
+      <c r="P35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="S35" s="60">
+        <v>1.9444519822647967E-2</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="41">
+        <v>16</v>
+      </c>
+      <c r="D36" s="41">
+        <v>16</v>
+      </c>
+      <c r="E36" s="41">
+        <v>16</v>
+      </c>
+      <c r="F36" s="41">
+        <v>16</v>
+      </c>
+      <c r="G36" s="41">
+        <v>16</v>
+      </c>
+      <c r="H36" s="41">
+        <v>16</v>
+      </c>
+      <c r="I36" s="41">
+        <v>16</v>
+      </c>
+      <c r="J36" s="41">
+        <v>16</v>
+      </c>
+      <c r="K36" s="41">
+        <v>16</v>
+      </c>
+      <c r="L36" s="41">
+        <v>16</v>
+      </c>
+      <c r="M36" s="41">
+        <v>16</v>
+      </c>
+      <c r="N36" s="41">
+        <v>16</v>
+      </c>
+      <c r="O36" s="39"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="38">
+        <v>-0.42191905872912916</v>
+      </c>
+      <c r="D37" s="38">
+        <v>-0.45892950247729841</v>
+      </c>
+      <c r="E37" s="43">
+        <v>-0.31259808133137079</v>
+      </c>
+      <c r="F37" s="43">
+        <v>-0.45300783147759133</v>
+      </c>
+      <c r="G37" s="38">
+        <v>-0.11268898055815663</v>
+      </c>
+      <c r="H37" s="38">
+        <v>0.17660288385813672</v>
+      </c>
+      <c r="I37" s="38">
+        <v>-0.2147760104232426</v>
+      </c>
+      <c r="J37" s="38">
+        <v>-0.38685362367710135</v>
+      </c>
+      <c r="K37" s="38">
+        <v>-0.34402773465164177</v>
+      </c>
+      <c r="L37" s="43">
+        <v>0.4032742560348454</v>
+      </c>
+      <c r="M37" s="43">
+        <v>-0.46434083197082621</v>
+      </c>
+      <c r="N37" s="43">
+        <v>1</v>
+      </c>
+      <c r="O37" s="39"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="38">
+        <v>0.10355876663994987</v>
+      </c>
+      <c r="D38" s="38">
+        <v>7.3760313275752734E-2</v>
+      </c>
+      <c r="E38" s="43">
+        <v>0.23847904753915</v>
+      </c>
+      <c r="F38" s="43">
+        <v>7.8049460187820524E-2</v>
+      </c>
+      <c r="G38" s="38">
+        <v>0.67776164338581935</v>
+      </c>
+      <c r="H38" s="38">
+        <v>0.51292974885442899</v>
+      </c>
+      <c r="I38" s="38">
+        <v>0.424404306658831</v>
+      </c>
+      <c r="J38" s="38">
+        <v>0.13880774503007254</v>
+      </c>
+      <c r="K38" s="38">
+        <v>0.19197943860252376</v>
+      </c>
+      <c r="L38" s="43">
+        <v>0.12140868895140484</v>
+      </c>
+      <c r="M38" s="43">
+        <v>6.9992692721273439E-2</v>
+      </c>
+      <c r="N38" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" s="39"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="41">
+        <v>16</v>
+      </c>
+      <c r="D39" s="41">
+        <v>16</v>
+      </c>
+      <c r="E39" s="41">
+        <v>16</v>
+      </c>
+      <c r="F39" s="41">
+        <v>16</v>
+      </c>
+      <c r="G39" s="41">
+        <v>16</v>
+      </c>
+      <c r="H39" s="41">
+        <v>16</v>
+      </c>
+      <c r="I39" s="41">
+        <v>16</v>
+      </c>
+      <c r="J39" s="41">
+        <v>16</v>
+      </c>
+      <c r="K39" s="41">
+        <v>16</v>
+      </c>
+      <c r="L39" s="41">
+        <v>16</v>
+      </c>
+      <c r="M39" s="41">
+        <v>16</v>
+      </c>
+      <c r="N39" s="41">
+        <v>16</v>
+      </c>
+      <c r="O39" s="39"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="45">
+        <v>1</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="47">
+        <v>0.37133165451814187</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="47">
+        <v>0.17134948923521154</v>
+      </c>
+      <c r="H43" s="47">
+        <v>0.37235566382536428</v>
+      </c>
+      <c r="I43" s="47">
+        <v>0.13794794590918596</v>
+      </c>
+      <c r="J43" s="47">
+        <v>-0.1176382461362632</v>
+      </c>
+      <c r="K43" s="47">
+        <v>-0.1452398221116239</v>
+      </c>
+      <c r="L43" s="47">
+        <v>-0.35544288085710857</v>
+      </c>
+      <c r="M43" s="47">
+        <v>-0.41353745522656926</v>
+      </c>
+      <c r="N43" s="47">
+        <v>-0.22040117175131516</v>
+      </c>
+      <c r="O43" s="48"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="80">
+        <v>6.4507052111141476E-5</v>
+      </c>
+      <c r="E44" s="47">
+        <v>0.15675363985894494</v>
+      </c>
+      <c r="F44" s="47">
+        <v>2.4913119639176293E-3</v>
+      </c>
+      <c r="G44" s="47">
+        <v>0.5257413167343884</v>
+      </c>
+      <c r="H44" s="47">
+        <v>0.15552395550004341</v>
+      </c>
+      <c r="I44" s="47">
+        <v>0.61041668813349081</v>
+      </c>
+      <c r="J44" s="47">
+        <v>0.66436485022391267</v>
+      </c>
+      <c r="K44" s="47">
+        <v>0.59147965623737042</v>
+      </c>
+      <c r="L44" s="47">
+        <v>0.17667623927115866</v>
+      </c>
+      <c r="M44" s="47">
+        <v>0.11133761545487758</v>
+      </c>
+      <c r="N44" s="47">
+        <v>0.41207322431551074</v>
+      </c>
+      <c r="O44" s="48"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="45">
+        <v>16</v>
+      </c>
+      <c r="D45" s="45">
+        <v>16</v>
+      </c>
+      <c r="E45" s="45">
+        <v>16</v>
+      </c>
+      <c r="F45" s="45">
+        <v>16</v>
+      </c>
+      <c r="G45" s="45">
+        <v>16</v>
+      </c>
+      <c r="H45" s="45">
+        <v>16</v>
+      </c>
+      <c r="I45" s="45">
+        <v>16</v>
+      </c>
+      <c r="J45" s="45">
+        <v>16</v>
+      </c>
+      <c r="K45" s="45">
+        <v>16</v>
+      </c>
+      <c r="L45" s="45">
+        <v>16</v>
+      </c>
+      <c r="M45" s="45">
+        <v>16</v>
+      </c>
+      <c r="N45" s="45">
+        <v>16</v>
+      </c>
+      <c r="O45" s="48"/>
+    </row>
+    <row r="46" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="45">
+        <v>1</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="47">
+        <v>0.43302954876794342</v>
+      </c>
+      <c r="I46" s="47">
+        <v>0.34743386833706263</v>
+      </c>
+      <c r="J46" s="47">
+        <v>7.1794406234750256E-3</v>
+      </c>
+      <c r="K46" s="47">
+        <v>-9.5968468995165465E-2</v>
+      </c>
+      <c r="L46" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="M46" s="47">
+        <v>-0.23857582656602111</v>
+      </c>
+      <c r="N46" s="47">
+        <v>-0.42953430241779877</v>
+      </c>
+      <c r="O46" s="48"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="80">
+        <v>6.4507052111141476E-5</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="47">
+        <v>1.4157460754239473E-3</v>
+      </c>
+      <c r="F47" s="47">
+        <v>1.3208815379477218E-4</v>
+      </c>
+      <c r="G47" s="47">
+        <v>3.7074244027101723E-2</v>
+      </c>
+      <c r="H47" s="47">
+        <v>9.3848999430973801E-2</v>
+      </c>
+      <c r="I47" s="47">
+        <v>0.1873256559557484</v>
+      </c>
+      <c r="J47" s="47">
+        <v>0.97894761935018748</v>
+      </c>
+      <c r="K47" s="47">
+        <v>0.7236742981844726</v>
+      </c>
+      <c r="L47" s="47">
+        <v>3.6509950179690387E-2</v>
+      </c>
+      <c r="M47" s="47">
+        <v>0.3735511645482984</v>
+      </c>
+      <c r="N47" s="47">
+        <v>9.6830745538673671E-2</v>
+      </c>
+      <c r="O47" s="48"/>
+    </row>
+    <row r="48" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="45">
+        <v>16</v>
+      </c>
+      <c r="D48" s="45">
+        <v>16</v>
+      </c>
+      <c r="E48" s="45">
+        <v>16</v>
+      </c>
+      <c r="F48" s="45">
+        <v>16</v>
+      </c>
+      <c r="G48" s="45">
+        <v>16</v>
+      </c>
+      <c r="H48" s="45">
+        <v>16</v>
+      </c>
+      <c r="I48" s="45">
+        <v>16</v>
+      </c>
+      <c r="J48" s="45">
+        <v>16</v>
+      </c>
+      <c r="K48" s="45">
+        <v>16</v>
+      </c>
+      <c r="L48" s="45">
+        <v>16</v>
+      </c>
+      <c r="M48" s="45">
+        <v>16</v>
+      </c>
+      <c r="N48" s="45">
+        <v>16</v>
+      </c>
+      <c r="O48" s="48"/>
+    </row>
+    <row r="49" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="47">
+        <v>0.37133165451814187</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="51">
+        <v>1</v>
+      </c>
+      <c r="F49" s="50">
+        <v>0.39164048359175851</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="47">
+        <v>0.30344293577397258</v>
+      </c>
+      <c r="I49" s="47">
+        <v>0.42532951719263917</v>
+      </c>
+      <c r="J49" s="47">
+        <v>0.14830476277909055</v>
+      </c>
+      <c r="K49" s="47">
+        <v>0.25237569886422778</v>
+      </c>
+      <c r="L49" s="50">
+        <v>-0.28792562573497787</v>
+      </c>
+      <c r="M49" s="50">
+        <v>7.9288147387250096E-2</v>
+      </c>
+      <c r="N49" s="50">
+        <v>-0.36351420610018043</v>
+      </c>
+      <c r="O49" s="48"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="47">
+        <v>0.15675363985894494</v>
+      </c>
+      <c r="D50" s="47">
+        <v>1.4157460754239473E-3</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="50">
+        <v>0.13356955762483441</v>
+      </c>
+      <c r="G50" s="47">
+        <v>4.11558646462514E-2</v>
+      </c>
+      <c r="H50" s="47">
+        <v>0.25324183128562627</v>
+      </c>
+      <c r="I50" s="47">
+        <v>0.10050610860225791</v>
+      </c>
+      <c r="J50" s="47">
+        <v>0.58359235060073023</v>
+      </c>
+      <c r="K50" s="47">
+        <v>0.34567933303451248</v>
+      </c>
+      <c r="L50" s="50">
+        <v>0.27952446211326204</v>
+      </c>
+      <c r="M50" s="50">
+        <v>0.77037435954606304</v>
+      </c>
+      <c r="N50" s="50">
+        <v>0.16635707973250924</v>
+      </c>
+      <c r="O50" s="48"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="45">
+        <v>16</v>
+      </c>
+      <c r="D51" s="45">
+        <v>16</v>
+      </c>
+      <c r="E51" s="45">
+        <v>16</v>
+      </c>
+      <c r="F51" s="45">
+        <v>16</v>
+      </c>
+      <c r="G51" s="45">
+        <v>16</v>
+      </c>
+      <c r="H51" s="45">
+        <v>16</v>
+      </c>
+      <c r="I51" s="45">
+        <v>16</v>
+      </c>
+      <c r="J51" s="45">
+        <v>16</v>
+      </c>
+      <c r="K51" s="45">
+        <v>16</v>
+      </c>
+      <c r="L51" s="45">
+        <v>16</v>
+      </c>
+      <c r="M51" s="45">
+        <v>16</v>
+      </c>
+      <c r="N51" s="45">
+        <v>16</v>
+      </c>
+      <c r="O51" s="48"/>
+    </row>
+    <row r="52" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="50">
+        <v>0.39164048359175851</v>
+      </c>
+      <c r="F52" s="51">
+        <v>1</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" s="47">
+        <v>0.26218754766137969</v>
+      </c>
+      <c r="J52" s="47">
+        <v>-0.20613037938209047</v>
+      </c>
+      <c r="K52" s="47">
+        <v>-0.34459865577627941</v>
+      </c>
+      <c r="L52" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" s="50">
+        <v>-0.2799317328697149</v>
+      </c>
+      <c r="N52" s="50">
+        <v>-0.38914158003298999</v>
+      </c>
+      <c r="O52" s="48"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="47">
+        <v>2.4913119639176293E-3</v>
+      </c>
+      <c r="D53" s="80">
+        <v>1.3208815379477218E-4</v>
+      </c>
+      <c r="E53" s="50">
+        <v>0.13356955762483441</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="47">
+        <v>4.3905608223403489E-2</v>
+      </c>
+      <c r="H53" s="47">
+        <v>1.7600414380243769E-2</v>
+      </c>
+      <c r="I53" s="47">
+        <v>0.32660101301654187</v>
+      </c>
+      <c r="J53" s="47">
+        <v>0.44372391198076411</v>
+      </c>
+      <c r="K53" s="47">
+        <v>0.19119417955609824</v>
+      </c>
+      <c r="L53" s="50">
+        <v>7.0061241202599598E-3</v>
+      </c>
+      <c r="M53" s="50">
+        <v>0.29368223432192458</v>
+      </c>
+      <c r="N53" s="50">
+        <v>0.13628684755735201</v>
+      </c>
+      <c r="O53" s="48"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="45">
+        <v>16</v>
+      </c>
+      <c r="D54" s="45">
+        <v>16</v>
+      </c>
+      <c r="E54" s="45">
+        <v>16</v>
+      </c>
+      <c r="F54" s="45">
+        <v>16</v>
+      </c>
+      <c r="G54" s="45">
+        <v>16</v>
+      </c>
+      <c r="H54" s="45">
+        <v>16</v>
+      </c>
+      <c r="I54" s="45">
+        <v>16</v>
+      </c>
+      <c r="J54" s="45">
+        <v>16</v>
+      </c>
+      <c r="K54" s="45">
+        <v>16</v>
+      </c>
+      <c r="L54" s="45">
+        <v>16</v>
+      </c>
+      <c r="M54" s="45">
+        <v>16</v>
+      </c>
+      <c r="N54" s="45">
+        <v>16</v>
+      </c>
+      <c r="O54" s="48"/>
+    </row>
+    <row r="55" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="47">
+        <v>0.17134948923521154</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="45">
+        <v>1</v>
+      </c>
+      <c r="H55" s="47">
+        <v>0.26711100566891333</v>
+      </c>
+      <c r="I55" s="47">
+        <v>0.18849659873418823</v>
+      </c>
+      <c r="J55" s="47">
+        <v>-9.3608871924322004E-2</v>
+      </c>
+      <c r="K55" s="47">
+        <v>-0.2551562469170493</v>
+      </c>
+      <c r="L55" s="47">
+        <v>-0.28881666202164846</v>
+      </c>
+      <c r="M55" s="47">
+        <v>-1.4756180473351694E-2</v>
+      </c>
+      <c r="N55" s="47">
+        <v>-0.13313070235891933</v>
+      </c>
+      <c r="O55" s="48"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="47">
+        <v>0.5257413167343884</v>
+      </c>
+      <c r="D56" s="47">
+        <v>3.7074244027101723E-2</v>
+      </c>
+      <c r="E56" s="47">
+        <v>4.11558646462514E-2</v>
+      </c>
+      <c r="F56" s="47">
+        <v>4.3905608223403489E-2</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="47">
+        <v>0.31726176390200039</v>
+      </c>
+      <c r="I56" s="47">
+        <v>0.48446963750748084</v>
+      </c>
+      <c r="J56" s="47">
+        <v>0.73022931434174654</v>
+      </c>
+      <c r="K56" s="47">
+        <v>0.34020999980230515</v>
+      </c>
+      <c r="L56" s="47">
+        <v>0.27797236823905858</v>
+      </c>
+      <c r="M56" s="47">
+        <v>0.95674461084984319</v>
+      </c>
+      <c r="N56" s="47">
+        <v>0.62305631725745114</v>
+      </c>
+      <c r="O56" s="48"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="45">
+        <v>16</v>
+      </c>
+      <c r="D57" s="45">
+        <v>16</v>
+      </c>
+      <c r="E57" s="45">
+        <v>16</v>
+      </c>
+      <c r="F57" s="45">
+        <v>16</v>
+      </c>
+      <c r="G57" s="45">
+        <v>16</v>
+      </c>
+      <c r="H57" s="45">
+        <v>16</v>
+      </c>
+      <c r="I57" s="45">
+        <v>16</v>
+      </c>
+      <c r="J57" s="45">
+        <v>16</v>
+      </c>
+      <c r="K57" s="45">
+        <v>16</v>
+      </c>
+      <c r="L57" s="45">
+        <v>16</v>
+      </c>
+      <c r="M57" s="45">
+        <v>16</v>
+      </c>
+      <c r="N57" s="45">
+        <v>16</v>
+      </c>
+      <c r="O57" s="48"/>
+    </row>
+    <row r="58" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="47">
+        <v>0.37235566382536428</v>
+      </c>
+      <c r="D58" s="47">
+        <v>0.43302954876794342</v>
+      </c>
+      <c r="E58" s="47">
+        <v>0.30344293577397258</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="47">
+        <v>0.26711100566891333</v>
+      </c>
+      <c r="H58" s="45">
+        <v>1</v>
+      </c>
+      <c r="I58" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="47">
+        <v>-0.40873907199607129</v>
+      </c>
+      <c r="K58" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="L58" s="47">
+        <v>-0.14981647938795101</v>
+      </c>
+      <c r="M58" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" s="47">
+        <v>0.13176347020699172</v>
+      </c>
+      <c r="O58" s="48"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="47">
+        <v>0.15552395550004341</v>
+      </c>
+      <c r="D59" s="47">
+        <v>9.3848999430973801E-2</v>
+      </c>
+      <c r="E59" s="47">
+        <v>0.25324183128562627</v>
+      </c>
+      <c r="F59" s="47">
+        <v>1.7600414380243769E-2</v>
+      </c>
+      <c r="G59" s="47">
+        <v>0.31726176390200039</v>
+      </c>
+      <c r="H59" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" s="47">
+        <v>3.1082894213286406E-2</v>
+      </c>
+      <c r="J59" s="47">
+        <v>0.11597052636176242</v>
+      </c>
+      <c r="K59" s="47">
+        <v>3.0410582125454319E-2</v>
+      </c>
+      <c r="L59" s="47">
+        <v>0.57971821561972003</v>
+      </c>
+      <c r="M59" s="47">
+        <v>2.1270141363327652E-2</v>
+      </c>
+      <c r="N59" s="47">
+        <v>0.62666194301417755</v>
+      </c>
+      <c r="O59" s="48"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="45">
+        <v>16</v>
+      </c>
+      <c r="D60" s="45">
+        <v>16</v>
+      </c>
+      <c r="E60" s="45">
+        <v>16</v>
+      </c>
+      <c r="F60" s="45">
+        <v>16</v>
+      </c>
+      <c r="G60" s="45">
+        <v>16</v>
+      </c>
+      <c r="H60" s="45">
+        <v>16</v>
+      </c>
+      <c r="I60" s="45">
+        <v>16</v>
+      </c>
+      <c r="J60" s="45">
+        <v>16</v>
+      </c>
+      <c r="K60" s="45">
+        <v>16</v>
+      </c>
+      <c r="L60" s="45">
+        <v>16</v>
+      </c>
+      <c r="M60" s="45">
+        <v>16</v>
+      </c>
+      <c r="N60" s="45">
+        <v>16</v>
+      </c>
+      <c r="O60" s="48"/>
+    </row>
+    <row r="61" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="47">
+        <v>0.13794794590918596</v>
+      </c>
+      <c r="D61" s="47">
+        <v>0.34743386833706263</v>
+      </c>
+      <c r="E61" s="47">
+        <v>0.42532951719263917</v>
+      </c>
+      <c r="F61" s="47">
+        <v>0.26218754766137969</v>
+      </c>
+      <c r="G61" s="47">
+        <v>0.18849659873418823</v>
+      </c>
+      <c r="H61" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="45">
+        <v>1</v>
+      </c>
+      <c r="J61" s="47">
+        <v>-1.4474523737201655E-2</v>
+      </c>
+      <c r="K61" s="47">
+        <v>-0.10199916209296957</v>
+      </c>
+      <c r="L61" s="47">
+        <v>-0.10125888111511151</v>
+      </c>
+      <c r="M61" s="47">
+        <v>-0.10774761107338722</v>
+      </c>
+      <c r="N61" s="47">
+        <v>-0.30084004167014516</v>
+      </c>
+      <c r="O61" s="48"/>
+    </row>
+    <row r="62" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="47">
+        <v>0.61041668813349081</v>
+      </c>
+      <c r="D62" s="47">
+        <v>0.1873256559557484</v>
+      </c>
+      <c r="E62" s="47">
+        <v>0.10050610860225791</v>
+      </c>
+      <c r="F62" s="47">
+        <v>0.32660101301654187</v>
+      </c>
+      <c r="G62" s="47">
+        <v>0.48446963750748084</v>
+      </c>
+      <c r="H62" s="47">
+        <v>3.1082894213286406E-2</v>
+      </c>
+      <c r="I62" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62" s="47">
+        <v>0.95756954413499495</v>
+      </c>
+      <c r="K62" s="47">
+        <v>0.70700340958145258</v>
+      </c>
+      <c r="L62" s="47">
+        <v>0.70904326013928609</v>
+      </c>
+      <c r="M62" s="47">
+        <v>0.69122796883467708</v>
+      </c>
+      <c r="N62" s="47">
+        <v>0.25753981949695687</v>
+      </c>
+      <c r="O62" s="48"/>
+    </row>
+    <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="45">
+        <v>16</v>
+      </c>
+      <c r="D63" s="45">
+        <v>16</v>
+      </c>
+      <c r="E63" s="45">
+        <v>16</v>
+      </c>
+      <c r="F63" s="45">
+        <v>16</v>
+      </c>
+      <c r="G63" s="45">
+        <v>16</v>
+      </c>
+      <c r="H63" s="45">
+        <v>16</v>
+      </c>
+      <c r="I63" s="45">
+        <v>16</v>
+      </c>
+      <c r="J63" s="45">
+        <v>16</v>
+      </c>
+      <c r="K63" s="45">
+        <v>16</v>
+      </c>
+      <c r="L63" s="45">
+        <v>16</v>
+      </c>
+      <c r="M63" s="45">
+        <v>16</v>
+      </c>
+      <c r="N63" s="45">
+        <v>16</v>
+      </c>
+      <c r="O63" s="48"/>
+    </row>
+    <row r="64" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="47">
+        <v>-0.1176382461362632</v>
+      </c>
+      <c r="D64" s="47">
+        <v>7.1794406234750256E-3</v>
+      </c>
+      <c r="E64" s="47">
+        <v>0.14830476277909055</v>
+      </c>
+      <c r="F64" s="47">
+        <v>-0.20613037938209047</v>
+      </c>
+      <c r="G64" s="47">
+        <v>-9.3608871924322004E-2</v>
+      </c>
+      <c r="H64" s="47">
+        <v>-0.40873907199607129</v>
+      </c>
+      <c r="I64" s="47">
+        <v>-1.4474523737201655E-2</v>
+      </c>
+      <c r="J64" s="45">
+        <v>1</v>
+      </c>
+      <c r="K64" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L64" s="47">
+        <v>-7.7144000431252344E-2</v>
+      </c>
+      <c r="M64" s="47">
+        <v>0.26313492814518874</v>
+      </c>
+      <c r="N64" s="47">
+        <v>-0.2959293746891834</v>
+      </c>
+      <c r="O64" s="48"/>
+    </row>
+    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="47">
+        <v>0.66436485022391267</v>
+      </c>
+      <c r="D65" s="47">
+        <v>0.97894761935018748</v>
+      </c>
+      <c r="E65" s="47">
+        <v>0.58359235060073023</v>
+      </c>
+      <c r="F65" s="47">
+        <v>0.44372391198076411</v>
+      </c>
+      <c r="G65" s="47">
+        <v>0.73022931434174654</v>
+      </c>
+      <c r="H65" s="47">
+        <v>0.11597052636176242</v>
+      </c>
+      <c r="I65" s="47">
+        <v>0.95756954413499495</v>
+      </c>
+      <c r="J65" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65" s="47">
+        <v>2.0851413902326976E-2</v>
+      </c>
+      <c r="L65" s="47">
+        <v>0.77643500078554972</v>
+      </c>
+      <c r="M65" s="47">
+        <v>0.32479174361484592</v>
+      </c>
+      <c r="N65" s="47">
+        <v>0.2657700188706148</v>
+      </c>
+      <c r="O65" s="48"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="45">
+        <v>16</v>
+      </c>
+      <c r="D66" s="45">
+        <v>16</v>
+      </c>
+      <c r="E66" s="45">
+        <v>16</v>
+      </c>
+      <c r="F66" s="45">
+        <v>16</v>
+      </c>
+      <c r="G66" s="45">
+        <v>16</v>
+      </c>
+      <c r="H66" s="45">
+        <v>16</v>
+      </c>
+      <c r="I66" s="45">
+        <v>16</v>
+      </c>
+      <c r="J66" s="45">
+        <v>16</v>
+      </c>
+      <c r="K66" s="45">
+        <v>16</v>
+      </c>
+      <c r="L66" s="45">
+        <v>16</v>
+      </c>
+      <c r="M66" s="45">
+        <v>16</v>
+      </c>
+      <c r="N66" s="45">
+        <v>16</v>
+      </c>
+      <c r="O66" s="48"/>
+    </row>
+    <row r="67" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="47">
+        <v>-0.1452398221116239</v>
+      </c>
+      <c r="D67" s="47">
+        <v>-9.5968468995165465E-2</v>
+      </c>
+      <c r="E67" s="47">
+        <v>0.25237569886422778</v>
+      </c>
+      <c r="F67" s="47">
+        <v>-0.34459865577627941</v>
+      </c>
+      <c r="G67" s="47">
+        <v>-0.2551562469170493</v>
+      </c>
+      <c r="H67" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67" s="47">
+        <v>-0.10199916209296957</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="K67" s="45">
+        <v>1</v>
+      </c>
+      <c r="L67" s="47">
+        <v>6.9644534325538673E-2</v>
+      </c>
+      <c r="M67" s="47">
+        <v>0.41846555882976683</v>
+      </c>
+      <c r="N67" s="47">
+        <v>-0.28857969516117948</v>
+      </c>
+      <c r="O67" s="48"/>
+    </row>
+    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="47">
+        <v>0.59147965623737042</v>
+      </c>
+      <c r="D68" s="47">
+        <v>0.7236742981844726</v>
+      </c>
+      <c r="E68" s="47">
+        <v>0.34567933303451248</v>
+      </c>
+      <c r="F68" s="47">
+        <v>0.19119417955609824</v>
+      </c>
+      <c r="G68" s="47">
+        <v>0.34020999980230515</v>
+      </c>
+      <c r="H68" s="47">
+        <v>3.0410582125454319E-2</v>
+      </c>
+      <c r="I68" s="47">
+        <v>0.70700340958145258</v>
+      </c>
+      <c r="J68" s="47">
+        <v>2.0851413902326976E-2</v>
+      </c>
+      <c r="K68" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68" s="47">
+        <v>0.7977261759990909</v>
+      </c>
+      <c r="M68" s="47">
+        <v>0.10671598916153828</v>
+      </c>
+      <c r="N68" s="47">
+        <v>0.27838463071001923</v>
+      </c>
+      <c r="O68" s="48"/>
+    </row>
+    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="45">
+        <v>16</v>
+      </c>
+      <c r="D69" s="45">
+        <v>16</v>
+      </c>
+      <c r="E69" s="45">
+        <v>16</v>
+      </c>
+      <c r="F69" s="45">
+        <v>16</v>
+      </c>
+      <c r="G69" s="45">
+        <v>16</v>
+      </c>
+      <c r="H69" s="45">
+        <v>16</v>
+      </c>
+      <c r="I69" s="45">
+        <v>16</v>
+      </c>
+      <c r="J69" s="45">
+        <v>16</v>
+      </c>
+      <c r="K69" s="45">
+        <v>16</v>
+      </c>
+      <c r="L69" s="45">
+        <v>16</v>
+      </c>
+      <c r="M69" s="45">
+        <v>16</v>
+      </c>
+      <c r="N69" s="45">
+        <v>16</v>
+      </c>
+      <c r="O69" s="48"/>
+    </row>
+    <row r="70" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="47">
+        <v>-0.35544288085710857</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="50">
+        <v>-0.28792562573497787</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="47">
+        <v>-0.28881666202164846</v>
+      </c>
+      <c r="H70" s="47">
+        <v>-0.14981647938795101</v>
+      </c>
+      <c r="I70" s="47">
+        <v>-0.10125888111511151</v>
+      </c>
+      <c r="J70" s="47">
+        <v>-7.7144000431252344E-2</v>
+      </c>
+      <c r="K70" s="47">
+        <v>6.9644534325538673E-2</v>
+      </c>
+      <c r="L70" s="51">
+        <v>1</v>
+      </c>
+      <c r="M70" s="50">
+        <v>-9.3018096698364208E-2</v>
+      </c>
+      <c r="N70" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="O70" s="48"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="47">
+        <v>0.17667623927115866</v>
+      </c>
+      <c r="D71" s="47">
+        <v>3.6509950179690387E-2</v>
+      </c>
+      <c r="E71" s="50">
+        <v>0.27952446211326204</v>
+      </c>
+      <c r="F71" s="50">
+        <v>7.0061241202599598E-3</v>
+      </c>
+      <c r="G71" s="47">
+        <v>0.27797236823905858</v>
+      </c>
+      <c r="H71" s="47">
+        <v>0.57971821561972003</v>
+      </c>
+      <c r="I71" s="47">
+        <v>0.70904326013928609</v>
+      </c>
+      <c r="J71" s="47">
+        <v>0.77643500078554972</v>
+      </c>
+      <c r="K71" s="47">
+        <v>0.7977261759990909</v>
+      </c>
+      <c r="L71" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="M71" s="50">
+        <v>0.73187326488926541</v>
+      </c>
+      <c r="N71" s="50">
+        <v>1.9444519822647967E-2</v>
+      </c>
+      <c r="O71" s="48"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="45">
+        <v>16</v>
+      </c>
+      <c r="D72" s="45">
+        <v>16</v>
+      </c>
+      <c r="E72" s="45">
+        <v>16</v>
+      </c>
+      <c r="F72" s="45">
+        <v>16</v>
+      </c>
+      <c r="G72" s="45">
+        <v>16</v>
+      </c>
+      <c r="H72" s="45">
+        <v>16</v>
+      </c>
+      <c r="I72" s="45">
+        <v>16</v>
+      </c>
+      <c r="J72" s="45">
+        <v>16</v>
+      </c>
+      <c r="K72" s="45">
+        <v>16</v>
+      </c>
+      <c r="L72" s="45">
+        <v>16</v>
+      </c>
+      <c r="M72" s="45">
+        <v>16</v>
+      </c>
+      <c r="N72" s="45">
+        <v>16</v>
+      </c>
+      <c r="O72" s="48"/>
+    </row>
+    <row r="73" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="47">
+        <v>-0.41353745522656926</v>
+      </c>
+      <c r="D73" s="47">
+        <v>-0.23857582656602111</v>
+      </c>
+      <c r="E73" s="50">
+        <v>7.9288147387250096E-2</v>
+      </c>
+      <c r="F73" s="50">
+        <v>-0.2799317328697149</v>
+      </c>
+      <c r="G73" s="47">
+        <v>-1.4756180473351694E-2</v>
+      </c>
+      <c r="H73" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" s="47">
+        <v>-0.10774761107338722</v>
+      </c>
+      <c r="J73" s="47">
+        <v>0.26313492814518874</v>
+      </c>
+      <c r="K73" s="47">
+        <v>0.41846555882976683</v>
+      </c>
+      <c r="L73" s="50">
+        <v>-9.3018096698364208E-2</v>
+      </c>
+      <c r="M73" s="51">
+        <v>1</v>
+      </c>
+      <c r="N73" s="50">
+        <v>-0.38183306405607803</v>
+      </c>
+      <c r="O73" s="48"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="47">
+        <v>0.11133761545487758</v>
+      </c>
+      <c r="D74" s="47">
+        <v>0.3735511645482984</v>
+      </c>
+      <c r="E74" s="50">
+        <v>0.77037435954606304</v>
+      </c>
+      <c r="F74" s="50">
+        <v>0.29368223432192458</v>
+      </c>
+      <c r="G74" s="47">
+        <v>0.95674461084984319</v>
+      </c>
+      <c r="H74" s="47">
+        <v>2.1270141363327652E-2</v>
+      </c>
+      <c r="I74" s="47">
+        <v>0.69122796883467708</v>
+      </c>
+      <c r="J74" s="47">
+        <v>0.32479174361484592</v>
+      </c>
+      <c r="K74" s="47">
+        <v>0.10671598916153828</v>
+      </c>
+      <c r="L74" s="50">
+        <v>0.73187326488926541</v>
+      </c>
+      <c r="M74" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="N74" s="50">
+        <v>0.14445070006423164</v>
+      </c>
+      <c r="O74" s="48"/>
+    </row>
+    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="45">
+        <v>16</v>
+      </c>
+      <c r="D75" s="45">
+        <v>16</v>
+      </c>
+      <c r="E75" s="45">
+        <v>16</v>
+      </c>
+      <c r="F75" s="45">
+        <v>16</v>
+      </c>
+      <c r="G75" s="45">
+        <v>16</v>
+      </c>
+      <c r="H75" s="45">
+        <v>16</v>
+      </c>
+      <c r="I75" s="45">
+        <v>16</v>
+      </c>
+      <c r="J75" s="45">
+        <v>16</v>
+      </c>
+      <c r="K75" s="45">
+        <v>16</v>
+      </c>
+      <c r="L75" s="45">
+        <v>16</v>
+      </c>
+      <c r="M75" s="45">
+        <v>16</v>
+      </c>
+      <c r="N75" s="45">
+        <v>16</v>
+      </c>
+      <c r="O75" s="48"/>
+    </row>
+    <row r="76" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="47">
+        <v>-0.22040117175131516</v>
+      </c>
+      <c r="D76" s="47">
+        <v>-0.42953430241779877</v>
+      </c>
+      <c r="E76" s="50">
+        <v>-0.36351420610018043</v>
+      </c>
+      <c r="F76" s="50">
+        <v>-0.38914158003298999</v>
+      </c>
+      <c r="G76" s="47">
+        <v>-0.13313070235891933</v>
+      </c>
+      <c r="H76" s="47">
+        <v>0.13176347020699172</v>
+      </c>
+      <c r="I76" s="47">
+        <v>-0.30084004167014516</v>
+      </c>
+      <c r="J76" s="47">
+        <v>-0.2959293746891834</v>
+      </c>
+      <c r="K76" s="47">
+        <v>-0.28857969516117948</v>
+      </c>
+      <c r="L76" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M76" s="50">
+        <v>-0.38183306405607803</v>
+      </c>
+      <c r="N76" s="51">
+        <v>1</v>
+      </c>
+      <c r="O76" s="48"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="47">
+        <v>0.41207322431551074</v>
+      </c>
+      <c r="D77" s="47">
+        <v>9.6830745538673671E-2</v>
+      </c>
+      <c r="E77" s="50">
+        <v>0.16635707973250924</v>
+      </c>
+      <c r="F77" s="50">
+        <v>0.13628684755735201</v>
+      </c>
+      <c r="G77" s="47">
+        <v>0.62305631725745114</v>
+      </c>
+      <c r="H77" s="47">
+        <v>0.62666194301417755</v>
+      </c>
+      <c r="I77" s="47">
+        <v>0.25753981949695687</v>
+      </c>
+      <c r="J77" s="47">
+        <v>0.2657700188706148</v>
+      </c>
+      <c r="K77" s="47">
+        <v>0.27838463071001923</v>
+      </c>
+      <c r="L77" s="50">
+        <v>1.9444519822647967E-2</v>
+      </c>
+      <c r="M77" s="50">
+        <v>0.14445070006423164</v>
+      </c>
+      <c r="N77" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="O77" s="48"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="45">
+        <v>16</v>
+      </c>
+      <c r="D78" s="45">
+        <v>16</v>
+      </c>
+      <c r="E78" s="45">
+        <v>16</v>
+      </c>
+      <c r="F78" s="45">
+        <v>16</v>
+      </c>
+      <c r="G78" s="45">
+        <v>16</v>
+      </c>
+      <c r="H78" s="45">
+        <v>16</v>
+      </c>
+      <c r="I78" s="45">
+        <v>16</v>
+      </c>
+      <c r="J78" s="45">
+        <v>16</v>
+      </c>
+      <c r="K78" s="45">
+        <v>16</v>
+      </c>
+      <c r="L78" s="45">
+        <v>16</v>
+      </c>
+      <c r="M78" s="45">
+        <v>16</v>
+      </c>
+      <c r="N78" s="45">
+        <v>16</v>
+      </c>
+      <c r="O78" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="P3:Q3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A5:N5 A8:N8 B9 A11:N11 B12 A14:N14 B15 A17:N17 B18 A20:N20 B21 A23:N23 B24 A26:N26 B27 A29:N29 B30 A32:N32 B33 A35:N35 B36 A38:N38 B39">
+    <cfRule type="cellIs" dxfId="5" priority="64" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:N44 A47:N47 B48 A50:N50 B51 A53:N53 B54 A56:N56 B57 A59:N59 B60 A62:N62 B63 A65:N65 B66 A68:N68 B69 A71:N71 B72 A74:N74 B75 A77:N77 B78">
+    <cfRule type="cellIs" dxfId="4" priority="65" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4:S35">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1CD89-D6B7-46EF-B6E0-3A7269855831}">
+  <dimension ref="A1:S39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -8580,12 +8606,14 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="F5" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
     </row>
@@ -8596,21 +8624,23 @@
       <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="83">
         <v>0</v>
       </c>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82">
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83">
         <v>1</v>
       </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="82" t="s">
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -8647,10 +8677,10 @@
         <v>27</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="72"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="30"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="71"/>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -8662,22 +8692,22 @@
       <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="70">
         <v>17523357.096000001</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="70">
         <v>6609561.4895479167</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="75">
         <v>4.0528669211858562E-4</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="72">
         <v>1321192.3147750001</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>423822.56917140976</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="76">
         <v>1.6670427474208691E-2</v>
       </c>
       <c r="L8" t="s">
@@ -8689,14 +8719,14 @@
       <c r="N8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="79">
+      <c r="O8" s="67">
         <v>1</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="72"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="71"/>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -8708,22 +8738,22 @@
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="72">
         <v>14252421.011750001</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="73">
         <v>2164702.2955294233</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="76">
         <v>0.24671412498468917</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="72">
         <v>1518632.8575625001</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="73">
         <v>572359.84924989939</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="76">
         <v>3.4836245180448963E-2</v>
       </c>
       <c r="L9" t="s">
@@ -8735,14 +8765,14 @@
       <c r="N9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="79">
+      <c r="O9" s="67">
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="71"/>
-      <c r="S9" s="72"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="71"/>
     </row>
     <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -8754,22 +8784,22 @@
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="74">
         <v>90.625</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="70">
         <v>7.4496823997498609</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="76">
         <v>0.81668100177184555</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="74">
         <v>59</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="70">
         <v>4.843994809481706</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="76">
         <v>0.13054463148361264</v>
       </c>
       <c r="L10" t="s">
@@ -8781,14 +8811,14 @@
       <c r="N10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O10" s="79">
+      <c r="O10" s="67">
         <v>3.5590000000000002</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="71"/>
-      <c r="S10" s="72"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="71"/>
     </row>
     <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -8800,22 +8830,22 @@
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="72">
         <v>76.621250000000003</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="73">
         <v>3.9267418507587171</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="76">
         <v>0.85312439584118283</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="72">
         <v>51.863749999999996</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J11" s="73">
         <v>3.284022977940753</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="76">
         <v>3.9778615428830613E-2</v>
       </c>
       <c r="L11" t="s">
@@ -8827,14 +8857,14 @@
       <c r="N11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="79">
+      <c r="O11" s="67">
         <v>0</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R11" s="71"/>
-      <c r="S11" s="72"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="71"/>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -8846,22 +8876,22 @@
       <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="74">
         <v>3.375</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="70">
         <v>0.70552665232637179</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="76">
         <v>0.36951532509887219</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="74">
         <v>1.5</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="70">
         <v>0.32732683535398854</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="76">
         <v>0.52238457085082091</v>
       </c>
       <c r="L12" t="s">
@@ -8873,14 +8903,14 @@
       <c r="N12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O12" s="79">
+      <c r="O12" s="67">
         <v>2.411</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="72"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="71"/>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -8892,22 +8922,22 @@
       <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="74">
         <v>20</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="70">
         <v>0.5</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <v>1.3739440606701207E-2</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="74">
         <v>19.25</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="70">
         <v>0.31339158526400435</v>
       </c>
-      <c r="K13" s="77">
+      <c r="K13" s="76">
         <v>5.3987435006377663E-2</v>
       </c>
       <c r="L13" t="s">
@@ -8919,14 +8949,14 @@
       <c r="N13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="79">
+      <c r="O13" s="67">
         <v>17.5</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="71"/>
-      <c r="S13" s="72"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="71"/>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -8938,22 +8968,22 @@
       <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="74">
         <v>2.125</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="70">
         <v>0.29504842217604116</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="76">
         <v>6.7235842307374546E-2</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="74">
         <v>1.75</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="70">
         <v>0.16366341767699427</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="76">
         <v>6.3229800207972341E-5</v>
       </c>
       <c r="L14" t="s">
@@ -8965,14 +8995,14 @@
       <c r="N14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="79">
+      <c r="O14" s="67">
         <v>23</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="71"/>
-      <c r="S14" s="72"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -8984,22 +9014,22 @@
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="70">
         <v>2</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <v>0.35355339059327373</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="76">
         <v>0.22349157547007925</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="70">
         <v>1.75</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="72">
         <v>0.25</v>
       </c>
-      <c r="K15" s="77">
+      <c r="K15" s="76">
         <v>0.27299165582344964</v>
       </c>
       <c r="L15" t="s">
@@ -9011,14 +9041,14 @@
       <c r="N15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="79">
+      <c r="O15" s="67">
         <v>0.57699999999999996</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="71"/>
-      <c r="S15" s="72"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="71"/>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -9030,22 +9060,22 @@
       <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="74">
         <v>15</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="70">
         <v>0.82375447104791399</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="76">
         <v>4.9479988097031601E-2</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="74">
         <v>14.875</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="70">
         <v>0.61054717847424134</v>
       </c>
-      <c r="K16" s="77">
+      <c r="K16" s="76">
         <v>9.3889333654139123E-2</v>
       </c>
       <c r="L16" t="s">
@@ -9057,14 +9087,14 @@
       <c r="N16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="79">
+      <c r="O16" s="67">
         <v>32</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="71"/>
-      <c r="S16" s="72"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="71"/>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -9076,22 +9106,22 @@
       <c r="E17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="70">
         <v>7.5625</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="72">
         <v>1.7511157157652375</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="76">
         <v>0.41010378848357948</v>
       </c>
-      <c r="I17" s="71">
+      <c r="I17" s="70">
         <v>14.125</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="72">
         <v>2.2315713554098409</v>
       </c>
-      <c r="K17" s="77">
+      <c r="K17" s="76">
         <v>0.65660697745179086</v>
       </c>
       <c r="L17" t="s">
@@ -9103,14 +9133,14 @@
       <c r="N17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="79">
+      <c r="O17" s="67">
         <v>-2.3140000000000001</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="71"/>
-      <c r="S17" s="72"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="71"/>
     </row>
     <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -9122,22 +9152,22 @@
       <c r="E18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="74">
         <v>172.5</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="70">
         <v>2.5</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="76">
         <v>0.45810504053631046</v>
       </c>
-      <c r="I18" s="75">
+      <c r="I18" s="74">
         <v>173</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="70">
         <v>1.5468862734076938</v>
       </c>
-      <c r="K18" s="77">
+      <c r="K18" s="76">
         <v>0.17347909187115529</v>
       </c>
       <c r="L18" t="s">
@@ -9149,14 +9179,14 @@
       <c r="N18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O18" s="79">
+      <c r="O18" s="67">
         <v>-0.17</v>
       </c>
       <c r="P18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="71"/>
-      <c r="S18" s="72"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="71"/>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -9168,22 +9198,22 @@
       <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="74">
         <v>24.5</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="70">
         <v>0.62678317052800869</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="76">
         <v>9.5341165659066821E-2</v>
       </c>
-      <c r="I19" s="75">
+      <c r="I19" s="74">
         <v>29</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="70">
         <v>1.5583874449479589</v>
       </c>
-      <c r="K19" s="77">
+      <c r="K19" s="76">
         <v>0.46965297349163382</v>
       </c>
       <c r="L19" t="s">
@@ -9195,14 +9225,14 @@
       <c r="N19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O19" s="79">
+      <c r="O19" s="67">
         <v>-2.6789999999999998</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="71"/>
-      <c r="S19" s="72"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="71"/>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -9212,8 +9242,8 @@
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="72"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="71"/>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -9223,8 +9253,8 @@
         <v>1</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="71"/>
     </row>
     <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -9234,73 +9264,78 @@
         <v>1</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="72"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="71"/>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R23" s="71"/>
-      <c r="S23" s="72"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="71"/>
     </row>
     <row r="24" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="R24" s="71"/>
-      <c r="S24" s="72"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="71"/>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="R25" s="71"/>
-      <c r="S25" s="72"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="71"/>
     </row>
     <row r="26" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="C26" s="12">
         <v>4</v>
       </c>
-      <c r="R26" s="71"/>
-      <c r="S26" s="72"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="71"/>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R27" s="71"/>
-      <c r="S27" s="72"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="71"/>
     </row>
     <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R28" s="71"/>
-      <c r="S28" s="72"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="71"/>
     </row>
     <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R29" s="71"/>
-      <c r="S29" s="72"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="71"/>
     </row>
     <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R30" s="71"/>
-      <c r="S30" s="72"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="71"/>
+    </row>
+    <row r="37" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="P37" s="79"/>
+    </row>
+    <row r="39" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N39" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="F5:K5"/>
   </mergeCells>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H19 K8:K19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M19">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
